--- a/Cidades.xlsx
+++ b/Cidades.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="499" uniqueCount="499">
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="407" uniqueCount="407">
   <x:si>
     <x:t>NOME</x:t>
   </x:si>
@@ -22,16 +22,16 @@
     <x:t>CEP</x:t>
   </x:si>
   <x:si>
-    <x:t>População Estimada</x:t>
-  </x:si>
-  <x:si>
-    <x:t>População último Censo</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Densidade Demográfica</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Código Município</x:t>
+    <x:t>Populacao Estimada</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Populacao Censo</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Densidade Demografica</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Codigo</x:t>
   </x:si>
   <x:si>
     <x:t>Gentilico</x:t>
@@ -40,7 +40,7 @@
     <x:t>Prefeito</x:t>
   </x:si>
   <x:si>
-    <x:t>Código</x:t>
+    <x:t>Classificacao</x:t>
   </x:si>
   <x:si>
     <x:t>Aguanil</x:t>
@@ -49,9 +49,6 @@
     <x:t>37273-000</x:t>
   </x:si>
   <x:si>
-    <x:t>3100807</x:t>
-  </x:si>
-  <x:si>
     <x:t>aguanilense</x:t>
   </x:si>
   <x:si>
@@ -64,9 +61,6 @@
     <x:t>37450-000</x:t>
   </x:si>
   <x:si>
-    <x:t>3101201</x:t>
-  </x:si>
-  <x:si>
     <x:t>aiuruocano</x:t>
   </x:si>
   <x:si>
@@ -79,9 +73,6 @@
     <x:t>37458-000</x:t>
   </x:si>
   <x:si>
-    <x:t>3101300</x:t>
-  </x:si>
-  <x:si>
     <x:t>alagoense</x:t>
   </x:si>
   <x:si>
@@ -94,9 +85,6 @@
     <x:t>37596-000</x:t>
   </x:si>
   <x:si>
-    <x:t>3101409</x:t>
-  </x:si>
-  <x:si>
     <x:t>albertinense</x:t>
   </x:si>
   <x:si>
@@ -109,24 +97,12 @@
     <x:t>37130-001</x:t>
   </x:si>
   <x:si>
-    <x:t>3101607</x:t>
-  </x:si>
-  <x:si>
-    <x:t>alfenense</x:t>
-  </x:si>
-  <x:si>
-    <x:t>LUIZ ANTONIO DA SILVA</x:t>
-  </x:si>
-  <x:si>
     <x:t>Alpinópolis</x:t>
   </x:si>
   <x:si>
     <x:t>37940-000</x:t>
   </x:si>
   <x:si>
-    <x:t>3101904</x:t>
-  </x:si>
-  <x:si>
     <x:t>alpinopolense</x:t>
   </x:si>
   <x:si>
@@ -139,9 +115,6 @@
     <x:t>37145-000</x:t>
   </x:si>
   <x:si>
-    <x:t>3102001</x:t>
-  </x:si>
-  <x:si>
     <x:t>alterosense</x:t>
   </x:si>
   <x:si>
@@ -154,9 +127,6 @@
     <x:t>37795-000</x:t>
   </x:si>
   <x:si>
-    <x:t>3102605</x:t>
-  </x:si>
-  <x:si>
     <x:t>andradense</x:t>
   </x:si>
   <x:si>
@@ -169,9 +139,6 @@
     <x:t>37300-000</x:t>
   </x:si>
   <x:si>
-    <x:t>3102803</x:t>
-  </x:si>
-  <x:si>
     <x:t>andrelandense</x:t>
   </x:si>
   <x:si>
@@ -184,9 +151,6 @@
     <x:t>37360-000</x:t>
   </x:si>
   <x:si>
-    <x:t>3103603</x:t>
-  </x:si>
-  <x:si>
     <x:t>arantinense</x:t>
   </x:si>
   <x:si>
@@ -199,9 +163,6 @@
     <x:t>37820-000</x:t>
   </x:si>
   <x:si>
-    <x:t>3104106</x:t>
-  </x:si>
-  <x:si>
     <x:t>arceburguense</x:t>
   </x:si>
   <x:si>
@@ -214,9 +175,6 @@
     <x:t>37140-000</x:t>
   </x:si>
   <x:si>
-    <x:t>3104304</x:t>
-  </x:si>
-  <x:si>
     <x:t>areadense</x:t>
   </x:si>
   <x:si>
@@ -229,9 +187,6 @@
     <x:t>37443-000</x:t>
   </x:si>
   <x:si>
-    <x:t>3104908</x:t>
-  </x:si>
-  <x:si>
     <x:t>baependiano</x:t>
   </x:si>
   <x:si>
@@ -244,9 +199,6 @@
     <x:t>37740-000</x:t>
   </x:si>
   <x:si>
-    <x:t>3105301</x:t>
-  </x:si>
-  <x:si>
     <x:t>bandeirante-do-sul</x:t>
   </x:si>
   <x:si>
@@ -259,9 +211,6 @@
     <x:t>37170-000</x:t>
   </x:si>
   <x:si>
-    <x:t>3107109</x:t>
-  </x:si>
-  <x:si>
     <x:t>esperancense</x:t>
   </x:si>
   <x:si>
@@ -274,9 +223,6 @@
     <x:t>37340-000</x:t>
   </x:si>
   <x:si>
-    <x:t>3107208</x:t>
-  </x:si>
-  <x:si>
     <x:t>bocainense</x:t>
   </x:si>
   <x:si>
@@ -289,9 +235,6 @@
     <x:t>37310-000</x:t>
   </x:si>
   <x:si>
-    <x:t>3107505</x:t>
-  </x:si>
-  <x:si>
     <x:t>bom-jardinense</x:t>
   </x:si>
   <x:si>
@@ -304,9 +247,6 @@
     <x:t>37948-000</x:t>
   </x:si>
   <x:si>
-    <x:t>3107604</x:t>
-  </x:si>
-  <x:si>
     <x:t>bom-jesuense</x:t>
   </x:si>
   <x:si>
@@ -319,9 +259,6 @@
     <x:t>37610-000</x:t>
   </x:si>
   <x:si>
-    <x:t>3107901</x:t>
-  </x:si>
-  <x:si>
     <x:t>bom-repousense</x:t>
   </x:si>
   <x:si>
@@ -334,9 +271,6 @@
     <x:t>37220-000</x:t>
   </x:si>
   <x:si>
-    <x:t>3108008</x:t>
-  </x:si>
-  <x:si>
     <x:t>bom-sucessense</x:t>
   </x:si>
   <x:si>
@@ -349,9 +283,6 @@
     <x:t>37564-000</x:t>
   </x:si>
   <x:si>
-    <x:t>3108305</x:t>
-  </x:si>
-  <x:si>
     <x:t>borda-matense</x:t>
   </x:si>
   <x:si>
@@ -364,9 +295,6 @@
     <x:t>37720-000</x:t>
   </x:si>
   <x:si>
-    <x:t>3108404</x:t>
-  </x:si>
-  <x:si>
     <x:t>botelhense</x:t>
   </x:si>
   <x:si>
@@ -379,9 +307,6 @@
     <x:t>37530-000</x:t>
   </x:si>
   <x:si>
-    <x:t>3108909</x:t>
-  </x:si>
-  <x:si>
     <x:t>brazopolense</x:t>
   </x:si>
   <x:si>
@@ -394,9 +319,6 @@
     <x:t>37578-000</x:t>
   </x:si>
   <x:si>
-    <x:t>3109105</x:t>
-  </x:si>
-  <x:si>
     <x:t>bueno-brandense</x:t>
   </x:si>
   <x:si>
@@ -409,9 +331,6 @@
     <x:t>37880-000</x:t>
   </x:si>
   <x:si>
-    <x:t>3109501</x:t>
-  </x:si>
-  <x:si>
     <x:t>cabo-verdense</x:t>
   </x:si>
   <x:si>
@@ -424,9 +343,6 @@
     <x:t>37545-000</x:t>
   </x:si>
   <x:si>
-    <x:t>3109709</x:t>
-  </x:si>
-  <x:si>
     <x:t>cachoeirense</x:t>
   </x:si>
   <x:si>
@@ -439,9 +355,6 @@
     <x:t>37780-000</x:t>
   </x:si>
   <x:si>
-    <x:t>3110301</x:t>
-  </x:si>
-  <x:si>
     <x:t>caldense</x:t>
   </x:si>
   <x:si>
@@ -454,9 +367,6 @@
     <x:t>37650-000</x:t>
   </x:si>
   <x:si>
-    <x:t>3110509</x:t>
-  </x:si>
-  <x:si>
     <x:t>camanducaiense</x:t>
   </x:si>
   <x:si>
@@ -469,9 +379,6 @@
     <x:t>37420-000</x:t>
   </x:si>
   <x:si>
-    <x:t>3110707</x:t>
-  </x:si>
-  <x:si>
     <x:t>cambuquirense</x:t>
   </x:si>
   <x:si>
@@ -484,9 +391,6 @@
     <x:t>37600-000</x:t>
   </x:si>
   <x:si>
-    <x:t>3110608</x:t>
-  </x:si>
-  <x:si>
     <x:t>cambuiense</x:t>
   </x:si>
   <x:si>
@@ -499,9 +403,6 @@
     <x:t>37400-000</x:t>
   </x:si>
   <x:si>
-    <x:t>3110905</x:t>
-  </x:si>
-  <x:si>
     <x:t>campanhense</x:t>
   </x:si>
   <x:si>
@@ -514,9 +415,6 @@
     <x:t>37730-000</x:t>
   </x:si>
   <x:si>
-    <x:t>3111002</x:t>
-  </x:si>
-  <x:si>
     <x:t>campestrense</x:t>
   </x:si>
   <x:si>
@@ -529,9 +427,6 @@
     <x:t>37270-000</x:t>
   </x:si>
   <x:si>
-    <x:t>3111200</x:t>
-  </x:si>
-  <x:si>
     <x:t>campo-belense</x:t>
   </x:si>
   <x:si>
@@ -544,9 +439,6 @@
     <x:t>37165-000</x:t>
   </x:si>
   <x:si>
-    <x:t>3111309</x:t>
-  </x:si>
-  <x:si>
     <x:t>campo-meense</x:t>
   </x:si>
   <x:si>
@@ -559,9 +451,6 @@
     <x:t>37160-000</x:t>
   </x:si>
   <x:si>
-    <x:t>3111606</x:t>
-  </x:si>
-  <x:si>
     <x:t>campos-geraiense</x:t>
   </x:si>
   <x:si>
@@ -574,9 +463,6 @@
     <x:t>37267-000</x:t>
   </x:si>
   <x:si>
-    <x:t>3111903</x:t>
-  </x:si>
-  <x:si>
     <x:t>cana-verdense</x:t>
   </x:si>
   <x:si>
@@ -589,9 +475,6 @@
     <x:t>37280-000</x:t>
   </x:si>
   <x:si>
-    <x:t>3112000</x:t>
-  </x:si>
-  <x:si>
     <x:t>candeense</x:t>
   </x:si>
   <x:si>
@@ -604,9 +487,6 @@
     <x:t>37993-000</x:t>
   </x:si>
   <x:si>
-    <x:t>3112406</x:t>
-  </x:si>
-  <x:si>
     <x:t>capetinguense</x:t>
   </x:si>
   <x:si>
@@ -619,9 +499,6 @@
     <x:t>37930-000</x:t>
   </x:si>
   <x:si>
-    <x:t>3112802</x:t>
-  </x:si>
-  <x:si>
     <x:t>capitolino</x:t>
   </x:si>
   <x:si>
@@ -634,9 +511,6 @@
     <x:t>37582-000</x:t>
   </x:si>
   <x:si>
-    <x:t>3113602</x:t>
-  </x:si>
-  <x:si>
     <x:t>careaçuense</x:t>
   </x:si>
   <x:si>
@@ -649,9 +523,6 @@
     <x:t>37225-000</x:t>
   </x:si>
   <x:si>
-    <x:t>3113909</x:t>
-  </x:si>
-  <x:si>
     <x:t>carmo-cachoeirense</x:t>
   </x:si>
   <x:si>
@@ -664,9 +535,6 @@
     <x:t>37472-000</x:t>
   </x:si>
   <x:si>
-    <x:t>3114105</x:t>
-  </x:si>
-  <x:si>
     <x:t>carmoense</x:t>
   </x:si>
   <x:si>
@@ -679,9 +547,6 @@
     <x:t>37150-000</x:t>
   </x:si>
   <x:si>
-    <x:t>3114402</x:t>
-  </x:si>
-  <x:si>
     <x:t>carmelitano</x:t>
   </x:si>
   <x:si>
@@ -694,9 +559,6 @@
     <x:t>37245-000</x:t>
   </x:si>
   <x:si>
-    <x:t>3114600</x:t>
-  </x:si>
-  <x:si>
     <x:t>carranquense</x:t>
   </x:si>
   <x:si>
@@ -709,9 +571,6 @@
     <x:t>37456-000</x:t>
   </x:si>
   <x:si>
-    <x:t>3114808</x:t>
-  </x:si>
-  <x:si>
     <x:t>carvalhense</x:t>
   </x:si>
   <x:si>
@@ -724,9 +583,6 @@
     <x:t>37760-000</x:t>
   </x:si>
   <x:si>
-    <x:t>3114709</x:t>
-  </x:si>
-  <x:si>
     <x:t>carvalhopolitano</x:t>
   </x:si>
   <x:si>
@@ -739,9 +595,6 @@
     <x:t>37440-000</x:t>
   </x:si>
   <x:si>
-    <x:t>3115508</x:t>
-  </x:si>
-  <x:si>
     <x:t>caxambuense</x:t>
   </x:si>
   <x:si>
@@ -754,9 +607,6 @@
     <x:t>37997-000</x:t>
   </x:si>
   <x:si>
-    <x:t>3116407</x:t>
-  </x:si>
-  <x:si>
     <x:t>claravalense</x:t>
   </x:si>
   <x:si>
@@ -769,9 +619,6 @@
     <x:t>37148-000</x:t>
   </x:si>
   <x:si>
-    <x:t>3117108</x:t>
-  </x:si>
-  <x:si>
     <x:t>aparecidense</x:t>
   </x:si>
   <x:si>
@@ -784,9 +631,6 @@
     <x:t>37527-000</x:t>
   </x:si>
   <x:si>
-    <x:t>3117207</x:t>
-  </x:si>
-  <x:si>
     <x:t>pedrense</x:t>
   </x:si>
   <x:si>
@@ -799,9 +643,6 @@
     <x:t>37430-000</x:t>
   </x:si>
   <x:si>
-    <x:t>3117702</x:t>
-  </x:si>
-  <x:si>
     <x:t>conceicionense</x:t>
   </x:si>
   <x:si>
@@ -814,9 +655,6 @@
     <x:t>37548-000</x:t>
   </x:si>
   <x:si>
-    <x:t>3117801</x:t>
-  </x:si>
-  <x:si>
     <x:t>ourense</x:t>
   </x:si>
   <x:si>
@@ -829,9 +667,6 @@
     <x:t>37584-000</x:t>
   </x:si>
   <x:si>
-    <x:t>3117900</x:t>
-  </x:si>
-  <x:si>
     <x:t>congonhalense</x:t>
   </x:si>
   <x:si>
@@ -844,9 +679,6 @@
     <x:t>37670-000</x:t>
   </x:si>
   <x:si>
-    <x:t>3118502</x:t>
-  </x:si>
-  <x:si>
     <x:t>consolense</x:t>
   </x:si>
   <x:si>
@@ -859,9 +691,6 @@
     <x:t>37235-000</x:t>
   </x:si>
   <x:si>
-    <x:t>3118700</x:t>
-  </x:si>
-  <x:si>
     <x:t>coqueirense</x:t>
   </x:si>
   <x:si>
@@ -874,9 +703,6 @@
     <x:t>37498-000</x:t>
   </x:si>
   <x:si>
-    <x:t>3119005</x:t>
-  </x:si>
-  <x:si>
     <x:t>cordislandense</x:t>
   </x:si>
   <x:si>
@@ -889,9 +715,6 @@
     <x:t>37275-000</x:t>
   </x:si>
   <x:si>
-    <x:t>3120201</x:t>
-  </x:si>
-  <x:si>
     <x:t>cristalense</x:t>
   </x:si>
   <x:si>
@@ -904,9 +727,6 @@
     <x:t>37476-000</x:t>
   </x:si>
   <x:si>
-    <x:t>3120508</x:t>
-  </x:si>
-  <x:si>
     <x:t>cristinense</x:t>
   </x:si>
   <x:si>
@@ -919,9 +739,6 @@
     <x:t>37445-000</x:t>
   </x:si>
   <x:si>
-    <x:t>3120805</x:t>
-  </x:si>
-  <x:si>
     <x:t>cruzilense</x:t>
   </x:si>
   <x:si>
@@ -934,9 +751,6 @@
     <x:t>37980-000</x:t>
   </x:si>
   <x:si>
-    <x:t>3115102</x:t>
-  </x:si>
-  <x:si>
     <x:t>cassiense</x:t>
   </x:si>
   <x:si>
@@ -949,9 +763,6 @@
     <x:t>37605-000</x:t>
   </x:si>
   <x:si>
-    <x:t>3119906</x:t>
-  </x:si>
-  <x:si>
     <x:t>correguense</x:t>
   </x:si>
   <x:si>
@@ -964,9 +775,6 @@
     <x:t>37514-000</x:t>
   </x:si>
   <x:si>
-    <x:t>3121100</x:t>
-  </x:si>
-  <x:si>
     <x:t>delfinense</x:t>
   </x:si>
   <x:si>
@@ -979,9 +787,6 @@
     <x:t>37910-000</x:t>
   </x:si>
   <x:si>
-    <x:t>3121209</x:t>
-  </x:si>
-  <x:si>
     <x:t>delfinopolitano</x:t>
   </x:si>
   <x:si>
@@ -994,9 +799,6 @@
     <x:t>37142-000</x:t>
   </x:si>
   <x:si>
-    <x:t>3122405</x:t>
-  </x:si>
-  <x:si>
     <x:t>divisa-novense</x:t>
   </x:si>
   <x:si>
@@ -1009,9 +811,6 @@
     <x:t>37474-000</x:t>
   </x:si>
   <x:si>
-    <x:t>3122801</x:t>
-  </x:si>
-  <x:si>
     <x:t>dom-viçosense</x:t>
   </x:si>
   <x:si>
@@ -1024,9 +823,6 @@
     <x:t>37926-000</x:t>
   </x:si>
   <x:si>
-    <x:t>3123403</x:t>
-  </x:si>
-  <x:si>
     <x:t>doresopolitano</x:t>
   </x:si>
   <x:si>
@@ -1039,9 +835,6 @@
     <x:t>37110-000</x:t>
   </x:si>
   <x:si>
-    <x:t>3123601</x:t>
-  </x:si>
-  <x:si>
     <x:t>elói-mendense</x:t>
   </x:si>
   <x:si>
@@ -1054,9 +847,6 @@
     <x:t>37566-000</x:t>
   </x:si>
   <x:si>
-    <x:t>3124401</x:t>
-  </x:si>
-  <x:si>
     <x:t>douradense</x:t>
   </x:si>
   <x:si>
@@ -1069,9 +859,6 @@
     <x:t>37542-000</x:t>
   </x:si>
   <x:si>
-    <x:t>3124500</x:t>
-  </x:si>
-  <x:si>
     <x:t>estivense</x:t>
   </x:si>
   <x:si>
@@ -1084,9 +871,6 @@
     <x:t>37640-000</x:t>
   </x:si>
   <x:si>
-    <x:t>3125101</x:t>
-  </x:si>
-  <x:si>
     <x:t>extremense</x:t>
   </x:si>
   <x:si>
@@ -1099,9 +883,6 @@
     <x:t>37144-000</x:t>
   </x:si>
   <x:si>
-    <x:t>3125200</x:t>
-  </x:si>
-  <x:si>
     <x:t>famense</x:t>
   </x:si>
   <x:si>
@@ -1114,9 +895,6 @@
     <x:t>37905-000</x:t>
   </x:si>
   <x:si>
-    <x:t>3126307</x:t>
-  </x:si>
-  <x:si>
     <x:t>fortalezense</x:t>
   </x:si>
   <x:si>
@@ -1129,9 +907,6 @@
     <x:t>37680-000</x:t>
   </x:si>
   <x:si>
-    <x:t>3127404</x:t>
-  </x:si>
-  <x:si>
     <x:t>gonçalvense</x:t>
   </x:si>
   <x:si>
@@ -1144,9 +919,6 @@
     <x:t>37177-000</x:t>
   </x:si>
   <x:si>
-    <x:t>3128105</x:t>
-  </x:si>
-  <x:si>
     <x:t>guapense</x:t>
   </x:si>
   <x:si>
@@ -1159,9 +931,6 @@
     <x:t>37810-000</x:t>
   </x:si>
   <x:si>
-    <x:t>3128303</x:t>
-  </x:si>
-  <x:si>
     <x:t>guaranesiano</x:t>
   </x:si>
   <x:si>
@@ -1174,9 +943,6 @@
     <x:t>37800-000</x:t>
   </x:si>
   <x:si>
-    <x:t>3128709</x:t>
-  </x:si>
-  <x:si>
     <x:t>guaxupeano</x:t>
   </x:si>
   <x:si>
@@ -1189,9 +955,6 @@
     <x:t>37484-000</x:t>
   </x:si>
   <x:si>
-    <x:t>3129202</x:t>
-  </x:si>
-  <x:si>
     <x:t>heliodorense</x:t>
   </x:si>
   <x:si>
@@ -1204,9 +967,6 @@
     <x:t>37990-000</x:t>
   </x:si>
   <x:si>
-    <x:t>3129707</x:t>
-  </x:si>
-  <x:si>
     <x:t>ibiraciense</x:t>
   </x:si>
   <x:si>
@@ -1219,9 +979,6 @@
     <x:t>37790-000</x:t>
   </x:si>
   <x:si>
-    <x:t>3129905</x:t>
-  </x:si>
-  <x:si>
     <x:t>ibitiurense</x:t>
   </x:si>
   <x:si>
@@ -1234,9 +991,6 @@
     <x:t>37223-000</x:t>
   </x:si>
   <x:si>
-    <x:t>3130002</x:t>
-  </x:si>
-  <x:si>
     <x:t>ibiturunense</x:t>
   </x:si>
   <x:si>
@@ -1249,9 +1003,6 @@
     <x:t>37218-000</x:t>
   </x:si>
   <x:si>
-    <x:t>3130408</x:t>
-  </x:si>
-  <x:si>
     <x:t>ijaciense</x:t>
   </x:si>
   <x:si>
@@ -1264,9 +1015,6 @@
     <x:t>37175-000</x:t>
   </x:si>
   <x:si>
-    <x:t>3130507</x:t>
-  </x:si>
-  <x:si>
     <x:t>ilicineaense</x:t>
   </x:si>
   <x:si>
@@ -1279,9 +1027,6 @@
     <x:t>37576-000</x:t>
   </x:si>
   <x:si>
-    <x:t>3130606</x:t>
-  </x:si>
-  <x:si>
     <x:t>inconfidentino</x:t>
   </x:si>
   <x:si>
@@ -1294,9 +1039,6 @@
     <x:t>37215-000</x:t>
   </x:si>
   <x:si>
-    <x:t>3130804</x:t>
-  </x:si>
-  <x:si>
     <x:t>ingaiense</x:t>
   </x:si>
   <x:si>
@@ -1309,9 +1051,6 @@
     <x:t>37588-000</x:t>
   </x:si>
   <x:si>
-    <x:t>3131505</x:t>
-  </x:si>
-  <x:si>
     <x:t>ipuiunense</x:t>
   </x:si>
   <x:si>
@@ -1324,9 +1063,6 @@
     <x:t>37500-001</x:t>
   </x:si>
   <x:si>
-    <x:t>3132404</x:t>
-  </x:si>
-  <x:si>
     <x:t>Itajubense</x:t>
   </x:si>
   <x:si>
@@ -1339,9 +1075,6 @@
     <x:t>37973-000</x:t>
   </x:si>
   <x:si>
-    <x:t>3132909</x:t>
-  </x:si>
-  <x:si>
     <x:t>itamogiense</x:t>
   </x:si>
   <x:si>
@@ -1354,9 +1087,6 @@
     <x:t>37466-000</x:t>
   </x:si>
   <x:si>
-    <x:t>3133006</x:t>
-  </x:si>
-  <x:si>
     <x:t>itamontense</x:t>
   </x:si>
   <x:si>
@@ -1369,9 +1099,6 @@
     <x:t>37464-000</x:t>
   </x:si>
   <x:si>
-    <x:t>3133105</x:t>
-  </x:si>
-  <x:si>
     <x:t>itanhanduense</x:t>
   </x:si>
   <x:si>
@@ -1384,9 +1111,6 @@
     <x:t>37655-000</x:t>
   </x:si>
   <x:si>
-    <x:t>3133600</x:t>
-  </x:si>
-  <x:si>
     <x:t>itapevense</x:t>
   </x:si>
   <x:si>
@@ -1399,9 +1123,6 @@
     <x:t>37975-000</x:t>
   </x:si>
   <x:si>
-    <x:t>3133758</x:t>
-  </x:si>
-  <x:si>
     <x:t>itauense</x:t>
   </x:si>
   <x:si>
@@ -1414,9 +1135,6 @@
     <x:t>37210-000</x:t>
   </x:si>
   <x:si>
-    <x:t>3134301</x:t>
-  </x:si>
-  <x:si>
     <x:t>itumirinense</x:t>
   </x:si>
   <x:si>
@@ -1429,9 +1147,6 @@
     <x:t>37590-000</x:t>
   </x:si>
   <x:si>
-    <x:t>3134905</x:t>
-  </x:si>
-  <x:si>
     <x:t>jacutinguense</x:t>
   </x:si>
   <x:si>
@@ -1444,9 +1159,6 @@
     <x:t>37965-000</x:t>
   </x:si>
   <x:si>
-    <x:t>3134806</x:t>
-  </x:si>
-  <x:si>
     <x:t>jacuiense</x:t>
   </x:si>
   <x:si>
@@ -1459,9 +1171,6 @@
     <x:t>37485-000</x:t>
   </x:si>
   <x:si>
-    <x:t>3135902</x:t>
-  </x:si>
-  <x:si>
     <x:t>jesuanense</x:t>
   </x:si>
   <x:si>
@@ -1474,9 +1183,6 @@
     <x:t>37805-000</x:t>
   </x:si>
   <x:si>
-    <x:t>3136900</x:t>
-  </x:si>
-  <x:si>
     <x:t>juruaiense</x:t>
   </x:si>
   <x:si>
@@ -1489,9 +1195,6 @@
     <x:t>37480-000</x:t>
   </x:si>
   <x:si>
-    <x:t>3137809</x:t>
-  </x:si>
-  <x:si>
     <x:t>lambariense</x:t>
   </x:si>
   <x:si>
@@ -1504,13 +1207,34 @@
     <x:t>37200-001</x:t>
   </x:si>
   <x:si>
-    <x:t>3138203</x:t>
-  </x:si>
-  <x:si>
     <x:t>lavrense</x:t>
   </x:si>
   <x:si>
     <x:t>JUSSARA MENICUCCI DE OLIVEIRA</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Liberdade</x:t>
+  </x:si>
+  <x:si>
+    <x:t>37350-000</x:t>
+  </x:si>
+  <x:si>
+    <x:t>libertense</x:t>
+  </x:si>
+  <x:si>
+    <x:t>WALTER DE ASSIS TOLEDO JUNIOR</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Luminárias</x:t>
+  </x:si>
+  <x:si>
+    <x:t>37240-000</x:t>
+  </x:si>
+  <x:si>
+    <x:t>luminarense</x:t>
+  </x:si>
+  <x:si>
+    <x:t>ECIO CARVALHO REZENDE</x:t>
   </x:si>
 </x:sst>
 </file>
@@ -1910,16 +1634,16 @@
         <x:v>4054</x:v>
       </x:c>
       <x:c r="E2" s="0" t="n">
-        <x:v>1747</x:v>
-      </x:c>
-      <x:c r="F2" s="0" t="s">
+        <x:v>17.47</x:v>
+      </x:c>
+      <x:c r="F2" s="0" t="n">
+        <x:v>3100807</x:v>
+      </x:c>
+      <x:c r="G2" s="0" t="s">
         <x:v>11</x:v>
       </x:c>
-      <x:c r="G2" s="0" t="s">
+      <x:c r="H2" s="0" t="s">
         <x:v>12</x:v>
-      </x:c>
-      <x:c r="H2" s="0" t="s">
-        <x:v>13</x:v>
       </x:c>
       <x:c r="I2" s="0" t="n">
         <x:v>1</x:v>
@@ -1927,10 +1651,10 @@
     </x:row>
     <x:row r="3" spans="1:9">
       <x:c r="A3" s="0" t="s">
+        <x:v>13</x:v>
+      </x:c>
+      <x:c r="B3" s="0" t="s">
         <x:v>14</x:v>
-      </x:c>
-      <x:c r="B3" s="0" t="s">
-        <x:v>15</x:v>
       </x:c>
       <x:c r="C3" s="0" t="n">
         <x:v>5976</x:v>
@@ -1939,16 +1663,16 @@
         <x:v>6162</x:v>
       </x:c>
       <x:c r="E3" s="0" t="n">
-        <x:v>948</x:v>
-      </x:c>
-      <x:c r="F3" s="0" t="s">
+        <x:v>9.48</x:v>
+      </x:c>
+      <x:c r="F3" s="0" t="n">
+        <x:v>3101201</x:v>
+      </x:c>
+      <x:c r="G3" s="0" t="s">
+        <x:v>15</x:v>
+      </x:c>
+      <x:c r="H3" s="0" t="s">
         <x:v>16</x:v>
-      </x:c>
-      <x:c r="G3" s="0" t="s">
-        <x:v>17</x:v>
-      </x:c>
-      <x:c r="H3" s="0" t="s">
-        <x:v>18</x:v>
       </x:c>
       <x:c r="I3" s="0" t="n">
         <x:v>1</x:v>
@@ -1956,10 +1680,10 @@
     </x:row>
     <x:row r="4" spans="1:9">
       <x:c r="A4" s="0" t="s">
-        <x:v>19</x:v>
+        <x:v>17</x:v>
       </x:c>
       <x:c r="B4" s="0" t="s">
-        <x:v>20</x:v>
+        <x:v>18</x:v>
       </x:c>
       <x:c r="C4" s="0" t="n">
         <x:v>2665</x:v>
@@ -1968,16 +1692,16 @@
         <x:v>2709</x:v>
       </x:c>
       <x:c r="E4" s="0" t="n">
-        <x:v>1679</x:v>
-      </x:c>
-      <x:c r="F4" s="0" t="s">
-        <x:v>21</x:v>
+        <x:v>16.79</x:v>
+      </x:c>
+      <x:c r="F4" s="0" t="n">
+        <x:v>3101300</x:v>
       </x:c>
       <x:c r="G4" s="0" t="s">
-        <x:v>22</x:v>
+        <x:v>19</x:v>
       </x:c>
       <x:c r="H4" s="0" t="s">
-        <x:v>23</x:v>
+        <x:v>20</x:v>
       </x:c>
       <x:c r="I4" s="0" t="n">
         <x:v>1</x:v>
@@ -1985,10 +1709,10 @@
     </x:row>
     <x:row r="5" spans="1:9">
       <x:c r="A5" s="0" t="s">
-        <x:v>24</x:v>
+        <x:v>21</x:v>
       </x:c>
       <x:c r="B5" s="0" t="s">
-        <x:v>25</x:v>
+        <x:v>22</x:v>
       </x:c>
       <x:c r="C5" s="0" t="n">
         <x:v>3011</x:v>
@@ -1997,16 +1721,16 @@
         <x:v>2913</x:v>
       </x:c>
       <x:c r="E5" s="0" t="n">
-        <x:v>5022</x:v>
-      </x:c>
-      <x:c r="F5" s="0" t="s">
-        <x:v>26</x:v>
+        <x:v>50.22</x:v>
+      </x:c>
+      <x:c r="F5" s="0" t="n">
+        <x:v>3101409</x:v>
       </x:c>
       <x:c r="G5" s="0" t="s">
-        <x:v>27</x:v>
+        <x:v>23</x:v>
       </x:c>
       <x:c r="H5" s="0" t="s">
-        <x:v>28</x:v>
+        <x:v>24</x:v>
       </x:c>
       <x:c r="I5" s="0" t="n">
         <x:v>1</x:v>
@@ -2014,173 +1738,173 @@
     </x:row>
     <x:row r="6" spans="1:9">
       <x:c r="A6" s="0" t="s">
-        <x:v>29</x:v>
+        <x:v>25</x:v>
       </x:c>
       <x:c r="B6" s="0" t="s">
-        <x:v>30</x:v>
+        <x:v>26</x:v>
       </x:c>
       <x:c r="C6" s="0" t="n">
-        <x:v>80494</x:v>
+        <x:v>3011</x:v>
       </x:c>
       <x:c r="D6" s="0" t="n">
-        <x:v>73774</x:v>
+        <x:v>2913</x:v>
       </x:c>
       <x:c r="E6" s="0" t="n">
-        <x:v>8675</x:v>
-      </x:c>
-      <x:c r="F6" s="0" t="s">
-        <x:v>31</x:v>
+        <x:v>50.22</x:v>
+      </x:c>
+      <x:c r="F6" s="0" t="n">
+        <x:v>3101409</x:v>
       </x:c>
       <x:c r="G6" s="0" t="s">
-        <x:v>32</x:v>
+        <x:v>23</x:v>
       </x:c>
       <x:c r="H6" s="0" t="s">
-        <x:v>33</x:v>
+        <x:v>24</x:v>
       </x:c>
       <x:c r="I6" s="0" t="n">
-        <x:v>3</x:v>
+        <x:v>1</x:v>
       </x:c>
     </x:row>
     <x:row r="7" spans="1:9">
       <x:c r="A7" s="0" t="s">
+        <x:v>27</x:v>
+      </x:c>
+      <x:c r="B7" s="0" t="s">
+        <x:v>28</x:v>
+      </x:c>
+      <x:c r="C7" s="0" t="n">
+        <x:v>19958</x:v>
+      </x:c>
+      <x:c r="D7" s="0" t="n">
+        <x:v>18488</x:v>
+      </x:c>
+      <x:c r="E7" s="0" t="n">
+        <x:v>40.66</x:v>
+      </x:c>
+      <x:c r="F7" s="0" t="n">
+        <x:v>3101904</x:v>
+      </x:c>
+      <x:c r="G7" s="0" t="s">
         <x:v>29</x:v>
       </x:c>
-      <x:c r="B7" s="0" t="s">
+      <x:c r="H7" s="0" t="s">
         <x:v>30</x:v>
       </x:c>
-      <x:c r="C7" s="0" t="n">
-        <x:v>80494</x:v>
-      </x:c>
-      <x:c r="D7" s="0" t="n">
-        <x:v>73774</x:v>
-      </x:c>
-      <x:c r="E7" s="0" t="n">
-        <x:v>8675</x:v>
-      </x:c>
-      <x:c r="F7" s="0" t="s">
-        <x:v>31</x:v>
-      </x:c>
-      <x:c r="G7" s="0" t="s">
-        <x:v>32</x:v>
-      </x:c>
-      <x:c r="H7" s="0" t="s">
-        <x:v>33</x:v>
-      </x:c>
       <x:c r="I7" s="0" t="n">
-        <x:v>3</x:v>
+        <x:v>2</x:v>
       </x:c>
     </x:row>
     <x:row r="8" spans="1:9">
       <x:c r="A8" s="0" t="s">
+        <x:v>31</x:v>
+      </x:c>
+      <x:c r="B8" s="0" t="s">
+        <x:v>32</x:v>
+      </x:c>
+      <x:c r="C8" s="0" t="n">
+        <x:v>14517</x:v>
+      </x:c>
+      <x:c r="D8" s="0" t="n">
+        <x:v>13717</x:v>
+      </x:c>
+      <x:c r="E8" s="0" t="n">
+        <x:v>37.89</x:v>
+      </x:c>
+      <x:c r="F8" s="0" t="n">
+        <x:v>3102001</x:v>
+      </x:c>
+      <x:c r="G8" s="0" t="s">
+        <x:v>33</x:v>
+      </x:c>
+      <x:c r="H8" s="0" t="s">
         <x:v>34</x:v>
       </x:c>
-      <x:c r="B8" s="0" t="s">
-        <x:v>35</x:v>
-      </x:c>
-      <x:c r="C8" s="0" t="n">
-        <x:v>19958</x:v>
-      </x:c>
-      <x:c r="D8" s="0" t="n">
-        <x:v>18488</x:v>
-      </x:c>
-      <x:c r="E8" s="0" t="n">
-        <x:v>4066</x:v>
-      </x:c>
-      <x:c r="F8" s="0" t="s">
-        <x:v>36</x:v>
-      </x:c>
-      <x:c r="G8" s="0" t="s">
-        <x:v>37</x:v>
-      </x:c>
-      <x:c r="H8" s="0" t="s">
-        <x:v>38</x:v>
-      </x:c>
       <x:c r="I8" s="0" t="n">
-        <x:v>2</x:v>
+        <x:v>1</x:v>
       </x:c>
     </x:row>
     <x:row r="9" spans="1:9">
       <x:c r="A9" s="0" t="s">
-        <x:v>39</x:v>
+        <x:v>35</x:v>
       </x:c>
       <x:c r="B9" s="0" t="s">
-        <x:v>40</x:v>
+        <x:v>36</x:v>
       </x:c>
       <x:c r="C9" s="0" t="n">
-        <x:v>14517</x:v>
+        <x:v>41396</x:v>
       </x:c>
       <x:c r="D9" s="0" t="n">
-        <x:v>13717</x:v>
+        <x:v>37270</x:v>
       </x:c>
       <x:c r="E9" s="0" t="n">
-        <x:v>3789</x:v>
-      </x:c>
-      <x:c r="F9" s="0" t="s">
-        <x:v>41</x:v>
+        <x:v>79.4</x:v>
+      </x:c>
+      <x:c r="F9" s="0" t="n">
+        <x:v>3102605</x:v>
       </x:c>
       <x:c r="G9" s="0" t="s">
-        <x:v>42</x:v>
+        <x:v>37</x:v>
       </x:c>
       <x:c r="H9" s="0" t="s">
-        <x:v>43</x:v>
+        <x:v>38</x:v>
       </x:c>
       <x:c r="I9" s="0" t="n">
-        <x:v>1</x:v>
+        <x:v>3</x:v>
       </x:c>
     </x:row>
     <x:row r="10" spans="1:9">
       <x:c r="A10" s="0" t="s">
-        <x:v>44</x:v>
+        <x:v>39</x:v>
       </x:c>
       <x:c r="B10" s="0" t="s">
-        <x:v>45</x:v>
+        <x:v>40</x:v>
       </x:c>
       <x:c r="C10" s="0" t="n">
-        <x:v>41396</x:v>
+        <x:v>12206</x:v>
       </x:c>
       <x:c r="D10" s="0" t="n">
-        <x:v>37270</x:v>
+        <x:v>12173</x:v>
       </x:c>
       <x:c r="E10" s="0" t="n">
-        <x:v>7940</x:v>
-      </x:c>
-      <x:c r="F10" s="0" t="s">
-        <x:v>46</x:v>
+        <x:v>12.11</x:v>
+      </x:c>
+      <x:c r="F10" s="0" t="n">
+        <x:v>3102803</x:v>
       </x:c>
       <x:c r="G10" s="0" t="s">
-        <x:v>47</x:v>
+        <x:v>41</x:v>
       </x:c>
       <x:c r="H10" s="0" t="s">
-        <x:v>48</x:v>
+        <x:v>42</x:v>
       </x:c>
       <x:c r="I10" s="0" t="n">
-        <x:v>3</x:v>
+        <x:v>1</x:v>
       </x:c>
     </x:row>
     <x:row r="11" spans="1:9">
       <x:c r="A11" s="0" t="s">
-        <x:v>49</x:v>
+        <x:v>43</x:v>
       </x:c>
       <x:c r="B11" s="0" t="s">
-        <x:v>50</x:v>
+        <x:v>44</x:v>
       </x:c>
       <x:c r="C11" s="0" t="n">
         <x:v>12206</x:v>
       </x:c>
       <x:c r="D11" s="0" t="n">
-        <x:v>12173</x:v>
+        <x:v>2823</x:v>
       </x:c>
       <x:c r="E11" s="0" t="n">
-        <x:v>1211</x:v>
-      </x:c>
-      <x:c r="F11" s="0" t="s">
-        <x:v>51</x:v>
+        <x:v>31.57</x:v>
+      </x:c>
+      <x:c r="F11" s="0" t="n">
+        <x:v>3103603</x:v>
       </x:c>
       <x:c r="G11" s="0" t="s">
-        <x:v>52</x:v>
+        <x:v>45</x:v>
       </x:c>
       <x:c r="H11" s="0" t="s">
-        <x:v>53</x:v>
+        <x:v>46</x:v>
       </x:c>
       <x:c r="I11" s="0" t="n">
         <x:v>1</x:v>
@@ -2188,28 +1912,28 @@
     </x:row>
     <x:row r="12" spans="1:9">
       <x:c r="A12" s="0" t="s">
-        <x:v>54</x:v>
+        <x:v>47</x:v>
       </x:c>
       <x:c r="B12" s="0" t="s">
-        <x:v>55</x:v>
+        <x:v>48</x:v>
       </x:c>
       <x:c r="C12" s="0" t="n">
-        <x:v>2787</x:v>
+        <x:v>10883</x:v>
       </x:c>
       <x:c r="D12" s="0" t="n">
-        <x:v>2823</x:v>
+        <x:v>9509</x:v>
       </x:c>
       <x:c r="E12" s="0" t="n">
-        <x:v>3157</x:v>
-      </x:c>
-      <x:c r="F12" s="0" t="s">
-        <x:v>56</x:v>
+        <x:v>58.38</x:v>
+      </x:c>
+      <x:c r="F12" s="0" t="n">
+        <x:v>3104106</x:v>
       </x:c>
       <x:c r="G12" s="0" t="s">
-        <x:v>57</x:v>
+        <x:v>49</x:v>
       </x:c>
       <x:c r="H12" s="0" t="s">
-        <x:v>58</x:v>
+        <x:v>50</x:v>
       </x:c>
       <x:c r="I12" s="0" t="n">
         <x:v>1</x:v>
@@ -2217,57 +1941,57 @@
     </x:row>
     <x:row r="13" spans="1:9">
       <x:c r="A13" s="0" t="s">
-        <x:v>59</x:v>
+        <x:v>51</x:v>
       </x:c>
       <x:c r="B13" s="0" t="s">
-        <x:v>60</x:v>
+        <x:v>52</x:v>
       </x:c>
       <x:c r="C13" s="0" t="n">
-        <x:v>10883</x:v>
+        <x:v>15181</x:v>
       </x:c>
       <x:c r="D13" s="0" t="n">
-        <x:v>9509</x:v>
+        <x:v>13731</x:v>
       </x:c>
       <x:c r="E13" s="0" t="n">
-        <x:v>5838</x:v>
-      </x:c>
-      <x:c r="F13" s="0" t="s">
-        <x:v>61</x:v>
+        <x:v>48.5</x:v>
+      </x:c>
+      <x:c r="F13" s="0" t="n">
+        <x:v>3104304</x:v>
       </x:c>
       <x:c r="G13" s="0" t="s">
-        <x:v>62</x:v>
+        <x:v>53</x:v>
       </x:c>
       <x:c r="H13" s="0" t="s">
-        <x:v>63</x:v>
+        <x:v>54</x:v>
       </x:c>
       <x:c r="I13" s="0" t="n">
-        <x:v>1</x:v>
+        <x:v>2</x:v>
       </x:c>
     </x:row>
     <x:row r="14" spans="1:9">
       <x:c r="A14" s="0" t="s">
-        <x:v>64</x:v>
+        <x:v>55</x:v>
       </x:c>
       <x:c r="B14" s="0" t="s">
-        <x:v>65</x:v>
+        <x:v>56</x:v>
       </x:c>
       <x:c r="C14" s="0" t="n">
-        <x:v>15181</x:v>
+        <x:v>19199</x:v>
       </x:c>
       <x:c r="D14" s="0" t="n">
-        <x:v>13731</x:v>
+        <x:v>18307</x:v>
       </x:c>
       <x:c r="E14" s="0" t="n">
-        <x:v>4850</x:v>
-      </x:c>
-      <x:c r="F14" s="0" t="s">
-        <x:v>66</x:v>
+        <x:v>24.39</x:v>
+      </x:c>
+      <x:c r="F14" s="0" t="n">
+        <x:v>3104908</x:v>
       </x:c>
       <x:c r="G14" s="0" t="s">
-        <x:v>67</x:v>
+        <x:v>57</x:v>
       </x:c>
       <x:c r="H14" s="0" t="s">
-        <x:v>68</x:v>
+        <x:v>58</x:v>
       </x:c>
       <x:c r="I14" s="0" t="n">
         <x:v>2</x:v>
@@ -2275,115 +1999,115 @@
     </x:row>
     <x:row r="15" spans="1:9">
       <x:c r="A15" s="0" t="s">
-        <x:v>69</x:v>
+        <x:v>59</x:v>
       </x:c>
       <x:c r="B15" s="0" t="s">
-        <x:v>70</x:v>
+        <x:v>60</x:v>
       </x:c>
       <x:c r="C15" s="0" t="n">
-        <x:v>19199</x:v>
+        <x:v>5778</x:v>
       </x:c>
       <x:c r="D15" s="0" t="n">
-        <x:v>18307</x:v>
+        <x:v>5338</x:v>
       </x:c>
       <x:c r="E15" s="0" t="n">
-        <x:v>2439</x:v>
-      </x:c>
-      <x:c r="F15" s="0" t="s">
-        <x:v>71</x:v>
+        <x:v>113.41</x:v>
+      </x:c>
+      <x:c r="F15" s="0" t="n">
+        <x:v>3105301</x:v>
       </x:c>
       <x:c r="G15" s="0" t="s">
-        <x:v>72</x:v>
+        <x:v>61</x:v>
       </x:c>
       <x:c r="H15" s="0" t="s">
-        <x:v>73</x:v>
+        <x:v>62</x:v>
       </x:c>
       <x:c r="I15" s="0" t="n">
-        <x:v>2</x:v>
+        <x:v>1</x:v>
       </x:c>
     </x:row>
     <x:row r="16" spans="1:9">
       <x:c r="A16" s="0" t="s">
-        <x:v>74</x:v>
+        <x:v>63</x:v>
       </x:c>
       <x:c r="B16" s="0" t="s">
-        <x:v>75</x:v>
+        <x:v>64</x:v>
       </x:c>
       <x:c r="C16" s="0" t="n">
-        <x:v>5778</x:v>
+        <x:v>40219</x:v>
       </x:c>
       <x:c r="D16" s="0" t="n">
-        <x:v>5338</x:v>
+        <x:v>38516</x:v>
       </x:c>
       <x:c r="E16" s="0" t="n">
-        <x:v>11341</x:v>
-      </x:c>
-      <x:c r="F16" s="0" t="s">
-        <x:v>76</x:v>
+        <x:v>44.75</x:v>
+      </x:c>
+      <x:c r="F16" s="0" t="n">
+        <x:v>3107109</x:v>
       </x:c>
       <x:c r="G16" s="0" t="s">
-        <x:v>77</x:v>
+        <x:v>65</x:v>
       </x:c>
       <x:c r="H16" s="0" t="s">
-        <x:v>78</x:v>
+        <x:v>66</x:v>
       </x:c>
       <x:c r="I16" s="0" t="n">
-        <x:v>1</x:v>
+        <x:v>3</x:v>
       </x:c>
     </x:row>
     <x:row r="17" spans="1:9">
       <x:c r="A17" s="0" t="s">
-        <x:v>79</x:v>
+        <x:v>67</x:v>
       </x:c>
       <x:c r="B17" s="0" t="s">
-        <x:v>80</x:v>
+        <x:v>68</x:v>
       </x:c>
       <x:c r="C17" s="0" t="n">
-        <x:v>40219</x:v>
+        <x:v>5089</x:v>
       </x:c>
       <x:c r="D17" s="0" t="n">
-        <x:v>38516</x:v>
+        <x:v>5007</x:v>
       </x:c>
       <x:c r="E17" s="0" t="n">
-        <x:v>4475</x:v>
-      </x:c>
-      <x:c r="F17" s="0" t="s">
-        <x:v>81</x:v>
+        <x:v>9.94</x:v>
+      </x:c>
+      <x:c r="F17" s="0" t="n">
+        <x:v>3107208</x:v>
       </x:c>
       <x:c r="G17" s="0" t="s">
-        <x:v>82</x:v>
+        <x:v>69</x:v>
       </x:c>
       <x:c r="H17" s="0" t="s">
-        <x:v>83</x:v>
+        <x:v>70</x:v>
       </x:c>
       <x:c r="I17" s="0" t="n">
-        <x:v>3</x:v>
+        <x:v>1</x:v>
       </x:c>
     </x:row>
     <x:row r="18" spans="1:9">
       <x:c r="A18" s="0" t="s">
-        <x:v>84</x:v>
+        <x:v>71</x:v>
       </x:c>
       <x:c r="B18" s="0" t="s">
-        <x:v>85</x:v>
+        <x:v>72</x:v>
       </x:c>
       <x:c r="C18" s="0" t="n">
-        <x:v>5089</x:v>
+        <x:v>6459</x:v>
       </x:c>
       <x:c r="D18" s="0" t="n">
-        <x:v>5007</x:v>
+        <x:v>6501</x:v>
       </x:c>
       <x:c r="E18" s="0" t="n">
-        <x:v>994</x:v>
-      </x:c>
-      <x:c r="F18" s="0" t="s">
-        <x:v>86</x:v>
+        <x:v>15.78</x:v>
+      </x:c>
+      <x:c r="F18" s="0" t="n">
+        <x:v>3107505</x:v>
       </x:c>
       <x:c r="G18" s="0" t="s">
-        <x:v>87</x:v>
+        <x:v>73</x:v>
       </x:c>
       <x:c r="H18" s="0" t="s">
-        <x:v>88</x:v>
+        <x:v>74</x:v>
       </x:c>
       <x:c r="I18" s="0" t="n">
         <x:v>1</x:v>
@@ -2391,28 +2115,28 @@
     </x:row>
     <x:row r="19" spans="1:9">
       <x:c r="A19" s="0" t="s">
-        <x:v>89</x:v>
+        <x:v>75</x:v>
       </x:c>
       <x:c r="B19" s="0" t="s">
-        <x:v>90</x:v>
+        <x:v>76</x:v>
       </x:c>
       <x:c r="C19" s="0" t="n">
-        <x:v>6459</x:v>
+        <x:v>4244</x:v>
       </x:c>
       <x:c r="D19" s="0" t="n">
-        <x:v>6501</x:v>
+        <x:v>3887</x:v>
       </x:c>
       <x:c r="E19" s="0" t="n">
-        <x:v>1578</x:v>
-      </x:c>
-      <x:c r="F19" s="0" t="s">
-        <x:v>91</x:v>
+        <x:v>18.66</x:v>
+      </x:c>
+      <x:c r="F19" s="0" t="n">
+        <x:v>3107604</x:v>
       </x:c>
       <x:c r="G19" s="0" t="s">
-        <x:v>92</x:v>
+        <x:v>77</x:v>
       </x:c>
       <x:c r="H19" s="0" t="s">
-        <x:v>93</x:v>
+        <x:v>78</x:v>
       </x:c>
       <x:c r="I19" s="0" t="n">
         <x:v>1</x:v>
@@ -2420,28 +2144,28 @@
     </x:row>
     <x:row r="20" spans="1:9">
       <x:c r="A20" s="0" t="s">
-        <x:v>94</x:v>
+        <x:v>79</x:v>
       </x:c>
       <x:c r="B20" s="0" t="s">
-        <x:v>95</x:v>
+        <x:v>80</x:v>
       </x:c>
       <x:c r="C20" s="0" t="n">
-        <x:v>4244</x:v>
+        <x:v>10537</x:v>
       </x:c>
       <x:c r="D20" s="0" t="n">
-        <x:v>3887</x:v>
+        <x:v>10457</x:v>
       </x:c>
       <x:c r="E20" s="0" t="n">
-        <x:v>1866</x:v>
-      </x:c>
-      <x:c r="F20" s="0" t="s">
-        <x:v>96</x:v>
+        <x:v>45.5</x:v>
+      </x:c>
+      <x:c r="F20" s="0" t="n">
+        <x:v>3107901</x:v>
       </x:c>
       <x:c r="G20" s="0" t="s">
-        <x:v>97</x:v>
+        <x:v>81</x:v>
       </x:c>
       <x:c r="H20" s="0" t="s">
-        <x:v>98</x:v>
+        <x:v>82</x:v>
       </x:c>
       <x:c r="I20" s="0" t="n">
         <x:v>1</x:v>
@@ -2449,57 +2173,57 @@
     </x:row>
     <x:row r="21" spans="1:9">
       <x:c r="A21" s="0" t="s">
-        <x:v>99</x:v>
+        <x:v>83</x:v>
       </x:c>
       <x:c r="B21" s="0" t="s">
-        <x:v>100</x:v>
+        <x:v>84</x:v>
       </x:c>
       <x:c r="C21" s="0" t="n">
-        <x:v>10537</x:v>
+        <x:v>17607</x:v>
       </x:c>
       <x:c r="D21" s="0" t="n">
-        <x:v>10457</x:v>
+        <x:v>17243</x:v>
       </x:c>
       <x:c r="E21" s="0" t="n">
-        <x:v>4550</x:v>
-      </x:c>
-      <x:c r="F21" s="0" t="s">
-        <x:v>101</x:v>
+        <x:v>24.46</x:v>
+      </x:c>
+      <x:c r="F21" s="0" t="n">
+        <x:v>3108008</x:v>
       </x:c>
       <x:c r="G21" s="0" t="s">
-        <x:v>102</x:v>
+        <x:v>85</x:v>
       </x:c>
       <x:c r="H21" s="0" t="s">
-        <x:v>103</x:v>
+        <x:v>86</x:v>
       </x:c>
       <x:c r="I21" s="0" t="n">
-        <x:v>1</x:v>
+        <x:v>2</x:v>
       </x:c>
     </x:row>
     <x:row r="22" spans="1:9">
       <x:c r="A22" s="0" t="s">
-        <x:v>104</x:v>
+        <x:v>87</x:v>
       </x:c>
       <x:c r="B22" s="0" t="s">
-        <x:v>105</x:v>
+        <x:v>88</x:v>
       </x:c>
       <x:c r="C22" s="0" t="n">
-        <x:v>17607</x:v>
+        <x:v>19614</x:v>
       </x:c>
       <x:c r="D22" s="0" t="n">
-        <x:v>17243</x:v>
+        <x:v>17118</x:v>
       </x:c>
       <x:c r="E22" s="0" t="n">
-        <x:v>2446</x:v>
-      </x:c>
-      <x:c r="F22" s="0" t="s">
-        <x:v>106</x:v>
+        <x:v>56.85</x:v>
+      </x:c>
+      <x:c r="F22" s="0" t="n">
+        <x:v>3108305</x:v>
       </x:c>
       <x:c r="G22" s="0" t="s">
-        <x:v>107</x:v>
+        <x:v>89</x:v>
       </x:c>
       <x:c r="H22" s="0" t="s">
-        <x:v>108</x:v>
+        <x:v>90</x:v>
       </x:c>
       <x:c r="I22" s="0" t="n">
         <x:v>2</x:v>
@@ -2507,57 +2231,57 @@
     </x:row>
     <x:row r="23" spans="1:9">
       <x:c r="A23" s="0" t="s">
-        <x:v>109</x:v>
+        <x:v>91</x:v>
       </x:c>
       <x:c r="B23" s="0" t="s">
-        <x:v>110</x:v>
+        <x:v>92</x:v>
       </x:c>
       <x:c r="C23" s="0" t="n">
-        <x:v>19614</x:v>
+        <x:v>14949</x:v>
       </x:c>
       <x:c r="D23" s="0" t="n">
-        <x:v>17118</x:v>
+        <x:v>14920</x:v>
       </x:c>
       <x:c r="E23" s="0" t="n">
-        <x:v>5685</x:v>
-      </x:c>
-      <x:c r="F23" s="0" t="s">
-        <x:v>111</x:v>
+        <x:v>44.66</x:v>
+      </x:c>
+      <x:c r="F23" s="0" t="n">
+        <x:v>3108404</x:v>
       </x:c>
       <x:c r="G23" s="0" t="s">
-        <x:v>112</x:v>
+        <x:v>93</x:v>
       </x:c>
       <x:c r="H23" s="0" t="s">
-        <x:v>113</x:v>
+        <x:v>94</x:v>
       </x:c>
       <x:c r="I23" s="0" t="n">
-        <x:v>2</x:v>
+        <x:v>1</x:v>
       </x:c>
     </x:row>
     <x:row r="24" spans="1:9">
       <x:c r="A24" s="0" t="s">
-        <x:v>114</x:v>
+        <x:v>95</x:v>
       </x:c>
       <x:c r="B24" s="0" t="s">
-        <x:v>115</x:v>
+        <x:v>96</x:v>
       </x:c>
       <x:c r="C24" s="0" t="n">
-        <x:v>14949</x:v>
+        <x:v>14410</x:v>
       </x:c>
       <x:c r="D24" s="0" t="n">
-        <x:v>14920</x:v>
+        <x:v>14661</x:v>
       </x:c>
       <x:c r="E24" s="0" t="n">
-        <x:v>4466</x:v>
-      </x:c>
-      <x:c r="F24" s="0" t="s">
-        <x:v>116</x:v>
+        <x:v>39.87</x:v>
+      </x:c>
+      <x:c r="F24" s="0" t="n">
+        <x:v>3108909</x:v>
       </x:c>
       <x:c r="G24" s="0" t="s">
-        <x:v>117</x:v>
+        <x:v>97</x:v>
       </x:c>
       <x:c r="H24" s="0" t="s">
-        <x:v>118</x:v>
+        <x:v>98</x:v>
       </x:c>
       <x:c r="I24" s="0" t="n">
         <x:v>1</x:v>
@@ -2565,28 +2289,28 @@
     </x:row>
     <x:row r="25" spans="1:9">
       <x:c r="A25" s="0" t="s">
-        <x:v>119</x:v>
+        <x:v>99</x:v>
       </x:c>
       <x:c r="B25" s="0" t="s">
-        <x:v>120</x:v>
+        <x:v>100</x:v>
       </x:c>
       <x:c r="C25" s="0" t="n">
-        <x:v>14410</x:v>
+        <x:v>10991</x:v>
       </x:c>
       <x:c r="D25" s="0" t="n">
-        <x:v>14661</x:v>
+        <x:v>10892</x:v>
       </x:c>
       <x:c r="E25" s="0" t="n">
-        <x:v>3987</x:v>
-      </x:c>
-      <x:c r="F25" s="0" t="s">
-        <x:v>121</x:v>
+        <x:v>30.58</x:v>
+      </x:c>
+      <x:c r="F25" s="0" t="n">
+        <x:v>3109105</x:v>
       </x:c>
       <x:c r="G25" s="0" t="s">
-        <x:v>122</x:v>
+        <x:v>101</x:v>
       </x:c>
       <x:c r="H25" s="0" t="s">
-        <x:v>123</x:v>
+        <x:v>102</x:v>
       </x:c>
       <x:c r="I25" s="0" t="n">
         <x:v>1</x:v>
@@ -2594,28 +2318,28 @@
     </x:row>
     <x:row r="26" spans="1:9">
       <x:c r="A26" s="0" t="s">
-        <x:v>124</x:v>
+        <x:v>103</x:v>
       </x:c>
       <x:c r="B26" s="0" t="s">
-        <x:v>125</x:v>
+        <x:v>104</x:v>
       </x:c>
       <x:c r="C26" s="0" t="n">
-        <x:v>10991</x:v>
+        <x:v>14075</x:v>
       </x:c>
       <x:c r="D26" s="0" t="n">
-        <x:v>10892</x:v>
+        <x:v>13823</x:v>
       </x:c>
       <x:c r="E26" s="0" t="n">
-        <x:v>3058</x:v>
-      </x:c>
-      <x:c r="F26" s="0" t="s">
-        <x:v>126</x:v>
+        <x:v>37.54</x:v>
+      </x:c>
+      <x:c r="F26" s="0" t="n">
+        <x:v>3109501</x:v>
       </x:c>
       <x:c r="G26" s="0" t="s">
-        <x:v>127</x:v>
+        <x:v>105</x:v>
       </x:c>
       <x:c r="H26" s="0" t="s">
-        <x:v>128</x:v>
+        <x:v>106</x:v>
       </x:c>
       <x:c r="I26" s="0" t="n">
         <x:v>1</x:v>
@@ -2623,28 +2347,28 @@
     </x:row>
     <x:row r="27" spans="1:9">
       <x:c r="A27" s="0" t="s">
-        <x:v>129</x:v>
+        <x:v>107</x:v>
       </x:c>
       <x:c r="B27" s="0" t="s">
-        <x:v>130</x:v>
+        <x:v>108</x:v>
       </x:c>
       <x:c r="C27" s="0" t="n">
-        <x:v>14075</x:v>
+        <x:v>11579</x:v>
       </x:c>
       <x:c r="D27" s="0" t="n">
-        <x:v>13823</x:v>
+        <x:v>11034</x:v>
       </x:c>
       <x:c r="E27" s="0" t="n">
-        <x:v>3754</x:v>
-      </x:c>
-      <x:c r="F27" s="0" t="s">
-        <x:v>131</x:v>
+        <x:v>36.27</x:v>
+      </x:c>
+      <x:c r="F27" s="0" t="n">
+        <x:v>3109709</x:v>
       </x:c>
       <x:c r="G27" s="0" t="s">
-        <x:v>132</x:v>
+        <x:v>109</x:v>
       </x:c>
       <x:c r="H27" s="0" t="s">
-        <x:v>133</x:v>
+        <x:v>110</x:v>
       </x:c>
       <x:c r="I27" s="0" t="n">
         <x:v>1</x:v>
@@ -2652,28 +2376,28 @@
     </x:row>
     <x:row r="28" spans="1:9">
       <x:c r="A28" s="0" t="s">
-        <x:v>134</x:v>
+        <x:v>111</x:v>
       </x:c>
       <x:c r="B28" s="0" t="s">
-        <x:v>135</x:v>
+        <x:v>112</x:v>
       </x:c>
       <x:c r="C28" s="0" t="n">
-        <x:v>11579</x:v>
+        <x:v>14541</x:v>
       </x:c>
       <x:c r="D28" s="0" t="n">
-        <x:v>11034</x:v>
+        <x:v>13633</x:v>
       </x:c>
       <x:c r="E28" s="0" t="n">
-        <x:v>3627</x:v>
-      </x:c>
-      <x:c r="F28" s="0" t="s">
-        <x:v>136</x:v>
+        <x:v>19.16</x:v>
+      </x:c>
+      <x:c r="F28" s="0" t="n">
+        <x:v>3110301</x:v>
       </x:c>
       <x:c r="G28" s="0" t="s">
-        <x:v>137</x:v>
+        <x:v>113</x:v>
       </x:c>
       <x:c r="H28" s="0" t="s">
-        <x:v>138</x:v>
+        <x:v>114</x:v>
       </x:c>
       <x:c r="I28" s="0" t="n">
         <x:v>1</x:v>
@@ -2681,115 +2405,115 @@
     </x:row>
     <x:row r="29" spans="1:9">
       <x:c r="A29" s="0" t="s">
-        <x:v>139</x:v>
+        <x:v>115</x:v>
       </x:c>
       <x:c r="B29" s="0" t="s">
-        <x:v>140</x:v>
+        <x:v>116</x:v>
       </x:c>
       <x:c r="C29" s="0" t="n">
-        <x:v>14541</x:v>
+        <x:v>21801</x:v>
       </x:c>
       <x:c r="D29" s="0" t="n">
-        <x:v>13633</x:v>
+        <x:v>21080</x:v>
       </x:c>
       <x:c r="E29" s="0" t="n">
-        <x:v>1916</x:v>
-      </x:c>
-      <x:c r="F29" s="0" t="s">
-        <x:v>141</x:v>
+        <x:v>39.89</x:v>
+      </x:c>
+      <x:c r="F29" s="0" t="n">
+        <x:v>3110509</x:v>
       </x:c>
       <x:c r="G29" s="0" t="s">
-        <x:v>142</x:v>
+        <x:v>117</x:v>
       </x:c>
       <x:c r="H29" s="0" t="s">
-        <x:v>143</x:v>
+        <x:v>118</x:v>
       </x:c>
       <x:c r="I29" s="0" t="n">
-        <x:v>1</x:v>
+        <x:v>2</x:v>
       </x:c>
     </x:row>
     <x:row r="30" spans="1:9">
       <x:c r="A30" s="0" t="s">
-        <x:v>144</x:v>
+        <x:v>119</x:v>
       </x:c>
       <x:c r="B30" s="0" t="s">
-        <x:v>145</x:v>
+        <x:v>120</x:v>
       </x:c>
       <x:c r="C30" s="0" t="n">
-        <x:v>21801</x:v>
+        <x:v>12812</x:v>
       </x:c>
       <x:c r="D30" s="0" t="n">
-        <x:v>21080</x:v>
+        <x:v>12602</x:v>
       </x:c>
       <x:c r="E30" s="0" t="n">
-        <x:v>3989</x:v>
-      </x:c>
-      <x:c r="F30" s="0" t="s">
-        <x:v>146</x:v>
+        <x:v>51.15</x:v>
+      </x:c>
+      <x:c r="F30" s="0" t="n">
+        <x:v>3110707</x:v>
       </x:c>
       <x:c r="G30" s="0" t="s">
-        <x:v>147</x:v>
+        <x:v>121</x:v>
       </x:c>
       <x:c r="H30" s="0" t="s">
-        <x:v>148</x:v>
+        <x:v>122</x:v>
       </x:c>
       <x:c r="I30" s="0" t="n">
-        <x:v>2</x:v>
+        <x:v>1</x:v>
       </x:c>
     </x:row>
     <x:row r="31" spans="1:9">
       <x:c r="A31" s="0" t="s">
-        <x:v>149</x:v>
+        <x:v>123</x:v>
       </x:c>
       <x:c r="B31" s="0" t="s">
-        <x:v>150</x:v>
+        <x:v>124</x:v>
       </x:c>
       <x:c r="C31" s="0" t="n">
-        <x:v>12812</x:v>
+        <x:v>29814</x:v>
       </x:c>
       <x:c r="D31" s="0" t="n">
-        <x:v>12602</x:v>
+        <x:v>26488</x:v>
       </x:c>
       <x:c r="E31" s="0" t="n">
-        <x:v>5115</x:v>
-      </x:c>
-      <x:c r="F31" s="0" t="s">
-        <x:v>151</x:v>
+        <x:v>108.31</x:v>
+      </x:c>
+      <x:c r="F31" s="0" t="n">
+        <x:v>3110608</x:v>
       </x:c>
       <x:c r="G31" s="0" t="s">
-        <x:v>152</x:v>
+        <x:v>125</x:v>
       </x:c>
       <x:c r="H31" s="0" t="s">
-        <x:v>153</x:v>
+        <x:v>126</x:v>
       </x:c>
       <x:c r="I31" s="0" t="n">
-        <x:v>1</x:v>
+        <x:v>2</x:v>
       </x:c>
     </x:row>
     <x:row r="32" spans="1:9">
       <x:c r="A32" s="0" t="s">
-        <x:v>154</x:v>
+        <x:v>127</x:v>
       </x:c>
       <x:c r="B32" s="0" t="s">
-        <x:v>155</x:v>
+        <x:v>128</x:v>
       </x:c>
       <x:c r="C32" s="0" t="n">
-        <x:v>29814</x:v>
+        <x:v>16762</x:v>
       </x:c>
       <x:c r="D32" s="0" t="n">
-        <x:v>26488</x:v>
+        <x:v>15433</x:v>
       </x:c>
       <x:c r="E32" s="0" t="n">
-        <x:v>10831</x:v>
-      </x:c>
-      <x:c r="F32" s="0" t="s">
-        <x:v>156</x:v>
+        <x:v>45.99</x:v>
+      </x:c>
+      <x:c r="F32" s="0" t="n">
+        <x:v>3110905</x:v>
       </x:c>
       <x:c r="G32" s="0" t="s">
-        <x:v>157</x:v>
+        <x:v>129</x:v>
       </x:c>
       <x:c r="H32" s="0" t="s">
-        <x:v>158</x:v>
+        <x:v>130</x:v>
       </x:c>
       <x:c r="I32" s="0" t="n">
         <x:v>2</x:v>
@@ -2797,28 +2521,28 @@
     </x:row>
     <x:row r="33" spans="1:9">
       <x:c r="A33" s="0" t="s">
-        <x:v>159</x:v>
+        <x:v>131</x:v>
       </x:c>
       <x:c r="B33" s="0" t="s">
-        <x:v>160</x:v>
+        <x:v>132</x:v>
       </x:c>
       <x:c r="C33" s="0" t="n">
-        <x:v>16762</x:v>
+        <x:v>21054</x:v>
       </x:c>
       <x:c r="D33" s="0" t="n">
-        <x:v>15433</x:v>
+        <x:v>20686</x:v>
       </x:c>
       <x:c r="E33" s="0" t="n">
-        <x:v>4599</x:v>
-      </x:c>
-      <x:c r="F33" s="0" t="s">
-        <x:v>161</x:v>
+        <x:v>35.8</x:v>
+      </x:c>
+      <x:c r="F33" s="0" t="n">
+        <x:v>3111002</x:v>
       </x:c>
       <x:c r="G33" s="0" t="s">
-        <x:v>162</x:v>
+        <x:v>133</x:v>
       </x:c>
       <x:c r="H33" s="0" t="s">
-        <x:v>163</x:v>
+        <x:v>134</x:v>
       </x:c>
       <x:c r="I33" s="0" t="n">
         <x:v>2</x:v>
@@ -2826,144 +2550,144 @@
     </x:row>
     <x:row r="34" spans="1:9">
       <x:c r="A34" s="0" t="s">
-        <x:v>164</x:v>
+        <x:v>135</x:v>
       </x:c>
       <x:c r="B34" s="0" t="s">
-        <x:v>165</x:v>
+        <x:v>136</x:v>
       </x:c>
       <x:c r="C34" s="0" t="n">
-        <x:v>21054</x:v>
+        <x:v>54186</x:v>
       </x:c>
       <x:c r="D34" s="0" t="n">
-        <x:v>20686</x:v>
+        <x:v>51544</x:v>
       </x:c>
       <x:c r="E34" s="0" t="n">
-        <x:v>3580</x:v>
-      </x:c>
-      <x:c r="F34" s="0" t="s">
-        <x:v>166</x:v>
+        <x:v>97.58</x:v>
+      </x:c>
+      <x:c r="F34" s="0" t="n">
+        <x:v>3111200</x:v>
       </x:c>
       <x:c r="G34" s="0" t="s">
-        <x:v>167</x:v>
+        <x:v>137</x:v>
       </x:c>
       <x:c r="H34" s="0" t="s">
-        <x:v>168</x:v>
+        <x:v>138</x:v>
       </x:c>
       <x:c r="I34" s="0" t="n">
-        <x:v>2</x:v>
+        <x:v>3</x:v>
       </x:c>
     </x:row>
     <x:row r="35" spans="1:9">
       <x:c r="A35" s="0" t="s">
-        <x:v>169</x:v>
+        <x:v>139</x:v>
       </x:c>
       <x:c r="B35" s="0" t="s">
-        <x:v>170</x:v>
+        <x:v>140</x:v>
       </x:c>
       <x:c r="C35" s="0" t="n">
-        <x:v>54186</x:v>
+        <x:v>11651</x:v>
       </x:c>
       <x:c r="D35" s="0" t="n">
-        <x:v>51544</x:v>
+        <x:v>11476</x:v>
       </x:c>
       <x:c r="E35" s="0" t="n">
-        <x:v>9758</x:v>
-      </x:c>
-      <x:c r="F35" s="0" t="s">
-        <x:v>171</x:v>
+        <x:v>41.67</x:v>
+      </x:c>
+      <x:c r="F35" s="0" t="n">
+        <x:v>3111309</x:v>
       </x:c>
       <x:c r="G35" s="0" t="s">
-        <x:v>172</x:v>
+        <x:v>141</x:v>
       </x:c>
       <x:c r="H35" s="0" t="s">
-        <x:v>173</x:v>
+        <x:v>142</x:v>
       </x:c>
       <x:c r="I35" s="0" t="n">
-        <x:v>3</x:v>
+        <x:v>1</x:v>
       </x:c>
     </x:row>
     <x:row r="36" spans="1:9">
       <x:c r="A36" s="0" t="s">
-        <x:v>174</x:v>
+        <x:v>143</x:v>
       </x:c>
       <x:c r="B36" s="0" t="s">
-        <x:v>175</x:v>
+        <x:v>144</x:v>
       </x:c>
       <x:c r="C36" s="0" t="n">
-        <x:v>11651</x:v>
+        <x:v>28842</x:v>
       </x:c>
       <x:c r="D36" s="0" t="n">
-        <x:v>11476</x:v>
+        <x:v>27600</x:v>
       </x:c>
       <x:c r="E36" s="0" t="n">
-        <x:v>4167</x:v>
-      </x:c>
-      <x:c r="F36" s="0" t="s">
-        <x:v>176</x:v>
+        <x:v>35.87</x:v>
+      </x:c>
+      <x:c r="F36" s="0" t="n">
+        <x:v>3111606</x:v>
       </x:c>
       <x:c r="G36" s="0" t="s">
-        <x:v>177</x:v>
+        <x:v>145</x:v>
       </x:c>
       <x:c r="H36" s="0" t="s">
-        <x:v>178</x:v>
+        <x:v>146</x:v>
       </x:c>
       <x:c r="I36" s="0" t="n">
-        <x:v>1</x:v>
+        <x:v>2</x:v>
       </x:c>
     </x:row>
     <x:row r="37" spans="1:9">
       <x:c r="A37" s="0" t="s">
-        <x:v>179</x:v>
+        <x:v>147</x:v>
       </x:c>
       <x:c r="B37" s="0" t="s">
-        <x:v>180</x:v>
+        <x:v>148</x:v>
       </x:c>
       <x:c r="C37" s="0" t="n">
-        <x:v>28842</x:v>
+        <x:v>5594</x:v>
       </x:c>
       <x:c r="D37" s="0" t="n">
-        <x:v>27600</x:v>
+        <x:v>5589</x:v>
       </x:c>
       <x:c r="E37" s="0" t="n">
-        <x:v>3587</x:v>
-      </x:c>
-      <x:c r="F37" s="0" t="s">
-        <x:v>181</x:v>
+        <x:v>26.27</x:v>
+      </x:c>
+      <x:c r="F37" s="0" t="n">
+        <x:v>3111903</x:v>
       </x:c>
       <x:c r="G37" s="0" t="s">
-        <x:v>182</x:v>
+        <x:v>149</x:v>
       </x:c>
       <x:c r="H37" s="0" t="s">
-        <x:v>183</x:v>
+        <x:v>150</x:v>
       </x:c>
       <x:c r="I37" s="0" t="n">
-        <x:v>2</x:v>
+        <x:v>1</x:v>
       </x:c>
     </x:row>
     <x:row r="38" spans="1:9">
       <x:c r="A38" s="0" t="s">
-        <x:v>184</x:v>
+        <x:v>151</x:v>
       </x:c>
       <x:c r="B38" s="0" t="s">
-        <x:v>185</x:v>
+        <x:v>152</x:v>
       </x:c>
       <x:c r="C38" s="0" t="n">
-        <x:v>5594</x:v>
+        <x:v>14888</x:v>
       </x:c>
       <x:c r="D38" s="0" t="n">
-        <x:v>5589</x:v>
+        <x:v>14595</x:v>
       </x:c>
       <x:c r="E38" s="0" t="n">
-        <x:v>2627</x:v>
-      </x:c>
-      <x:c r="F38" s="0" t="s">
-        <x:v>186</x:v>
+        <x:v>20.26</x:v>
+      </x:c>
+      <x:c r="F38" s="0" t="n">
+        <x:v>3112000</x:v>
       </x:c>
       <x:c r="G38" s="0" t="s">
-        <x:v>187</x:v>
+        <x:v>153</x:v>
       </x:c>
       <x:c r="H38" s="0" t="s">
-        <x:v>188</x:v>
+        <x:v>154</x:v>
       </x:c>
       <x:c r="I38" s="0" t="n">
         <x:v>1</x:v>
@@ -2971,28 +2695,28 @@
     </x:row>
     <x:row r="39" spans="1:9">
       <x:c r="A39" s="0" t="s">
-        <x:v>189</x:v>
+        <x:v>155</x:v>
       </x:c>
       <x:c r="B39" s="0" t="s">
-        <x:v>190</x:v>
+        <x:v>156</x:v>
       </x:c>
       <x:c r="C39" s="0" t="n">
-        <x:v>14888</x:v>
+        <x:v>6890</x:v>
       </x:c>
       <x:c r="D39" s="0" t="n">
-        <x:v>14595</x:v>
+        <x:v>7089</x:v>
       </x:c>
       <x:c r="E39" s="0" t="n">
-        <x:v>2026</x:v>
-      </x:c>
-      <x:c r="F39" s="0" t="s">
-        <x:v>191</x:v>
+        <x:v>23.79</x:v>
+      </x:c>
+      <x:c r="F39" s="0" t="n">
+        <x:v>3112406</x:v>
       </x:c>
       <x:c r="G39" s="0" t="s">
-        <x:v>192</x:v>
+        <x:v>157</x:v>
       </x:c>
       <x:c r="H39" s="0" t="s">
-        <x:v>193</x:v>
+        <x:v>158</x:v>
       </x:c>
       <x:c r="I39" s="0" t="n">
         <x:v>1</x:v>
@@ -3000,28 +2724,28 @@
     </x:row>
     <x:row r="40" spans="1:9">
       <x:c r="A40" s="0" t="s">
-        <x:v>194</x:v>
+        <x:v>159</x:v>
       </x:c>
       <x:c r="B40" s="0" t="s">
-        <x:v>195</x:v>
+        <x:v>160</x:v>
       </x:c>
       <x:c r="C40" s="0" t="n">
-        <x:v>6890</x:v>
+        <x:v>8663</x:v>
       </x:c>
       <x:c r="D40" s="0" t="n">
-        <x:v>7089</x:v>
+        <x:v>8183</x:v>
       </x:c>
       <x:c r="E40" s="0" t="n">
-        <x:v>2379</x:v>
-      </x:c>
-      <x:c r="F40" s="0" t="s">
-        <x:v>196</x:v>
+        <x:v>15.68</x:v>
+      </x:c>
+      <x:c r="F40" s="0" t="n">
+        <x:v>3112802</x:v>
       </x:c>
       <x:c r="G40" s="0" t="s">
-        <x:v>197</x:v>
+        <x:v>161</x:v>
       </x:c>
       <x:c r="H40" s="0" t="s">
-        <x:v>198</x:v>
+        <x:v>162</x:v>
       </x:c>
       <x:c r="I40" s="0" t="n">
         <x:v>1</x:v>
@@ -3029,28 +2753,28 @@
     </x:row>
     <x:row r="41" spans="1:9">
       <x:c r="A41" s="0" t="s">
-        <x:v>199</x:v>
+        <x:v>163</x:v>
       </x:c>
       <x:c r="B41" s="0" t="s">
-        <x:v>200</x:v>
+        <x:v>164</x:v>
       </x:c>
       <x:c r="C41" s="0" t="n">
-        <x:v>8663</x:v>
+        <x:v>6792</x:v>
       </x:c>
       <x:c r="D41" s="0" t="n">
-        <x:v>8183</x:v>
+        <x:v>6298</x:v>
       </x:c>
       <x:c r="E41" s="0" t="n">
-        <x:v>1568</x:v>
-      </x:c>
-      <x:c r="F41" s="0" t="s">
-        <x:v>201</x:v>
+        <x:v>34.79</x:v>
+      </x:c>
+      <x:c r="F41" s="0" t="n">
+        <x:v>3113602</x:v>
       </x:c>
       <x:c r="G41" s="0" t="s">
-        <x:v>202</x:v>
+        <x:v>165</x:v>
       </x:c>
       <x:c r="H41" s="0" t="s">
-        <x:v>203</x:v>
+        <x:v>166</x:v>
       </x:c>
       <x:c r="I41" s="0" t="n">
         <x:v>1</x:v>
@@ -3058,28 +2782,28 @@
     </x:row>
     <x:row r="42" spans="1:9">
       <x:c r="A42" s="0" t="s">
-        <x:v>204</x:v>
+        <x:v>167</x:v>
       </x:c>
       <x:c r="B42" s="0" t="s">
-        <x:v>205</x:v>
+        <x:v>168</x:v>
       </x:c>
       <x:c r="C42" s="0" t="n">
-        <x:v>6792</x:v>
+        <x:v>12182</x:v>
       </x:c>
       <x:c r="D42" s="0" t="n">
-        <x:v>6298</x:v>
+        <x:v>11836</x:v>
       </x:c>
       <x:c r="E42" s="0" t="n">
-        <x:v>3479</x:v>
-      </x:c>
-      <x:c r="F42" s="0" t="s">
-        <x:v>206</x:v>
+        <x:v>23.38</x:v>
+      </x:c>
+      <x:c r="F42" s="0" t="n">
+        <x:v>3113909</x:v>
       </x:c>
       <x:c r="G42" s="0" t="s">
-        <x:v>207</x:v>
+        <x:v>169</x:v>
       </x:c>
       <x:c r="H42" s="0" t="s">
-        <x:v>208</x:v>
+        <x:v>170</x:v>
       </x:c>
       <x:c r="I42" s="0" t="n">
         <x:v>1</x:v>
@@ -3087,28 +2811,28 @@
     </x:row>
     <x:row r="43" spans="1:9">
       <x:c r="A43" s="0" t="s">
-        <x:v>209</x:v>
+        <x:v>171</x:v>
       </x:c>
       <x:c r="B43" s="0" t="s">
-        <x:v>210</x:v>
+        <x:v>172</x:v>
       </x:c>
       <x:c r="C43" s="0" t="n">
-        <x:v>12182</x:v>
+        <x:v>14947</x:v>
       </x:c>
       <x:c r="D43" s="0" t="n">
-        <x:v>11836</x:v>
+        <x:v>13750</x:v>
       </x:c>
       <x:c r="E43" s="0" t="n">
-        <x:v>2338</x:v>
-      </x:c>
-      <x:c r="F43" s="0" t="s">
-        <x:v>211</x:v>
+        <x:v>42.66</x:v>
+      </x:c>
+      <x:c r="F43" s="0" t="n">
+        <x:v>3114105</x:v>
       </x:c>
       <x:c r="G43" s="0" t="s">
-        <x:v>212</x:v>
+        <x:v>173</x:v>
       </x:c>
       <x:c r="H43" s="0" t="s">
-        <x:v>213</x:v>
+        <x:v>174</x:v>
       </x:c>
       <x:c r="I43" s="0" t="n">
         <x:v>1</x:v>
@@ -3116,86 +2840,86 @@
     </x:row>
     <x:row r="44" spans="1:9">
       <x:c r="A44" s="0" t="s">
-        <x:v>214</x:v>
+        <x:v>175</x:v>
       </x:c>
       <x:c r="B44" s="0" t="s">
-        <x:v>215</x:v>
+        <x:v>176</x:v>
       </x:c>
       <x:c r="C44" s="0" t="n">
-        <x:v>14947</x:v>
+        <x:v>21268</x:v>
       </x:c>
       <x:c r="D44" s="0" t="n">
-        <x:v>13750</x:v>
+        <x:v>20426</x:v>
       </x:c>
       <x:c r="E44" s="0" t="n">
-        <x:v>4266</x:v>
-      </x:c>
-      <x:c r="F44" s="0" t="s">
-        <x:v>216</x:v>
+        <x:v>19.17</x:v>
+      </x:c>
+      <x:c r="F44" s="0" t="n">
+        <x:v>3114402</x:v>
       </x:c>
       <x:c r="G44" s="0" t="s">
-        <x:v>217</x:v>
+        <x:v>177</x:v>
       </x:c>
       <x:c r="H44" s="0" t="s">
-        <x:v>218</x:v>
+        <x:v>178</x:v>
       </x:c>
       <x:c r="I44" s="0" t="n">
-        <x:v>1</x:v>
+        <x:v>2</x:v>
       </x:c>
     </x:row>
     <x:row r="45" spans="1:9">
       <x:c r="A45" s="0" t="s">
-        <x:v>219</x:v>
+        <x:v>179</x:v>
       </x:c>
       <x:c r="B45" s="0" t="s">
-        <x:v>220</x:v>
+        <x:v>180</x:v>
       </x:c>
       <x:c r="C45" s="0" t="n">
-        <x:v>21268</x:v>
+        <x:v>4049</x:v>
       </x:c>
       <x:c r="D45" s="0" t="n">
-        <x:v>20426</x:v>
+        <x:v>3948</x:v>
       </x:c>
       <x:c r="E45" s="0" t="n">
-        <x:v>1917</x:v>
-      </x:c>
-      <x:c r="F45" s="0" t="s">
-        <x:v>221</x:v>
+        <x:v>5.42</x:v>
+      </x:c>
+      <x:c r="F45" s="0" t="n">
+        <x:v>3114600</x:v>
       </x:c>
       <x:c r="G45" s="0" t="s">
-        <x:v>222</x:v>
+        <x:v>181</x:v>
       </x:c>
       <x:c r="H45" s="0" t="s">
-        <x:v>223</x:v>
+        <x:v>182</x:v>
       </x:c>
       <x:c r="I45" s="0" t="n">
-        <x:v>2</x:v>
+        <x:v>1</x:v>
       </x:c>
     </x:row>
     <x:row r="46" spans="1:9">
       <x:c r="A46" s="0" t="s">
-        <x:v>224</x:v>
+        <x:v>183</x:v>
       </x:c>
       <x:c r="B46" s="0" t="s">
-        <x:v>225</x:v>
+        <x:v>184</x:v>
       </x:c>
       <x:c r="C46" s="0" t="n">
-        <x:v>4049</x:v>
+        <x:v>4461</x:v>
       </x:c>
       <x:c r="D46" s="0" t="n">
-        <x:v>3948</x:v>
+        <x:v>4556</x:v>
       </x:c>
       <x:c r="E46" s="0" t="n">
-        <x:v>542</x:v>
-      </x:c>
-      <x:c r="F46" s="0" t="s">
-        <x:v>226</x:v>
+        <x:v>16.14</x:v>
+      </x:c>
+      <x:c r="F46" s="0" t="n">
+        <x:v>3114808</x:v>
       </x:c>
       <x:c r="G46" s="0" t="s">
-        <x:v>227</x:v>
+        <x:v>185</x:v>
       </x:c>
       <x:c r="H46" s="0" t="s">
-        <x:v>228</x:v>
+        <x:v>186</x:v>
       </x:c>
       <x:c r="I46" s="0" t="n">
         <x:v>1</x:v>
@@ -3203,28 +2927,28 @@
     </x:row>
     <x:row r="47" spans="1:9">
       <x:c r="A47" s="0" t="s">
-        <x:v>229</x:v>
+        <x:v>187</x:v>
       </x:c>
       <x:c r="B47" s="0" t="s">
-        <x:v>230</x:v>
+        <x:v>188</x:v>
       </x:c>
       <x:c r="C47" s="0" t="n">
-        <x:v>4461</x:v>
+        <x:v>3597</x:v>
       </x:c>
       <x:c r="D47" s="0" t="n">
-        <x:v>4556</x:v>
+        <x:v>3341</x:v>
       </x:c>
       <x:c r="E47" s="0" t="n">
-        <x:v>1614</x:v>
-      </x:c>
-      <x:c r="F47" s="0" t="s">
-        <x:v>231</x:v>
+        <x:v>41.2</x:v>
+      </x:c>
+      <x:c r="F47" s="0" t="n">
+        <x:v>3114709</x:v>
       </x:c>
       <x:c r="G47" s="0" t="s">
-        <x:v>232</x:v>
+        <x:v>189</x:v>
       </x:c>
       <x:c r="H47" s="0" t="s">
-        <x:v>233</x:v>
+        <x:v>190</x:v>
       </x:c>
       <x:c r="I47" s="0" t="n">
         <x:v>1</x:v>
@@ -3232,86 +2956,86 @@
     </x:row>
     <x:row r="48" spans="1:9">
       <x:c r="A48" s="0" t="s">
-        <x:v>234</x:v>
+        <x:v>191</x:v>
       </x:c>
       <x:c r="B48" s="0" t="s">
-        <x:v>235</x:v>
+        <x:v>192</x:v>
       </x:c>
       <x:c r="C48" s="0" t="n">
-        <x:v>3597</x:v>
+        <x:v>21610</x:v>
       </x:c>
       <x:c r="D48" s="0" t="n">
-        <x:v>3341</x:v>
+        <x:v>21705</x:v>
       </x:c>
       <x:c r="E48" s="0" t="n">
-        <x:v>4120</x:v>
-      </x:c>
-      <x:c r="F48" s="0" t="s">
-        <x:v>236</x:v>
+        <x:v>216.01</x:v>
+      </x:c>
+      <x:c r="F48" s="0" t="n">
+        <x:v>3115508</x:v>
       </x:c>
       <x:c r="G48" s="0" t="s">
-        <x:v>237</x:v>
+        <x:v>193</x:v>
       </x:c>
       <x:c r="H48" s="0" t="s">
-        <x:v>238</x:v>
+        <x:v>194</x:v>
       </x:c>
       <x:c r="I48" s="0" t="n">
-        <x:v>1</x:v>
+        <x:v>2</x:v>
       </x:c>
     </x:row>
     <x:row r="49" spans="1:9">
       <x:c r="A49" s="0" t="s">
-        <x:v>239</x:v>
+        <x:v>195</x:v>
       </x:c>
       <x:c r="B49" s="0" t="s">
-        <x:v>240</x:v>
+        <x:v>196</x:v>
       </x:c>
       <x:c r="C49" s="0" t="n">
-        <x:v>21610</x:v>
+        <x:v>4853</x:v>
       </x:c>
       <x:c r="D49" s="0" t="n">
-        <x:v>21705</x:v>
+        <x:v>4542</x:v>
       </x:c>
       <x:c r="E49" s="0" t="n">
-        <x:v>21601</x:v>
-      </x:c>
-      <x:c r="F49" s="0" t="s">
-        <x:v>241</x:v>
+        <x:v>19.95</x:v>
+      </x:c>
+      <x:c r="F49" s="0" t="n">
+        <x:v>3116407</x:v>
       </x:c>
       <x:c r="G49" s="0" t="s">
-        <x:v>242</x:v>
+        <x:v>197</x:v>
       </x:c>
       <x:c r="H49" s="0" t="s">
-        <x:v>243</x:v>
+        <x:v>198</x:v>
       </x:c>
       <x:c r="I49" s="0" t="n">
-        <x:v>2</x:v>
+        <x:v>1</x:v>
       </x:c>
     </x:row>
     <x:row r="50" spans="1:9">
       <x:c r="A50" s="0" t="s">
-        <x:v>244</x:v>
+        <x:v>199</x:v>
       </x:c>
       <x:c r="B50" s="0" t="s">
-        <x:v>245</x:v>
+        <x:v>200</x:v>
       </x:c>
       <x:c r="C50" s="0" t="n">
-        <x:v>4853</x:v>
+        <x:v>10322</x:v>
       </x:c>
       <x:c r="D50" s="0" t="n">
-        <x:v>4542</x:v>
+        <x:v>9820</x:v>
       </x:c>
       <x:c r="E50" s="0" t="n">
-        <x:v>1995</x:v>
-      </x:c>
-      <x:c r="F50" s="0" t="s">
-        <x:v>246</x:v>
+        <x:v>27.86</x:v>
+      </x:c>
+      <x:c r="F50" s="0" t="n">
+        <x:v>3117108</x:v>
       </x:c>
       <x:c r="G50" s="0" t="s">
-        <x:v>247</x:v>
+        <x:v>201</x:v>
       </x:c>
       <x:c r="H50" s="0" t="s">
-        <x:v>248</x:v>
+        <x:v>202</x:v>
       </x:c>
       <x:c r="I50" s="0" t="n">
         <x:v>1</x:v>
@@ -3319,28 +3043,28 @@
     </x:row>
     <x:row r="51" spans="1:9">
       <x:c r="A51" s="0" t="s">
-        <x:v>249</x:v>
+        <x:v>203</x:v>
       </x:c>
       <x:c r="B51" s="0" t="s">
-        <x:v>250</x:v>
+        <x:v>204</x:v>
       </x:c>
       <x:c r="C51" s="0" t="n">
-        <x:v>10322</x:v>
+        <x:v>2813</x:v>
       </x:c>
       <x:c r="D51" s="0" t="n">
-        <x:v>9820</x:v>
+        <x:v>2749</x:v>
       </x:c>
       <x:c r="E51" s="0" t="n">
-        <x:v>2786</x:v>
-      </x:c>
-      <x:c r="F51" s="0" t="s">
-        <x:v>251</x:v>
+        <x:v>26.9</x:v>
+      </x:c>
+      <x:c r="F51" s="0" t="n">
+        <x:v>3117207</x:v>
       </x:c>
       <x:c r="G51" s="0" t="s">
-        <x:v>252</x:v>
+        <x:v>205</x:v>
       </x:c>
       <x:c r="H51" s="0" t="s">
-        <x:v>253</x:v>
+        <x:v>206</x:v>
       </x:c>
       <x:c r="I51" s="0" t="n">
         <x:v>1</x:v>
@@ -3348,28 +3072,28 @@
     </x:row>
     <x:row r="52" spans="1:9">
       <x:c r="A52" s="0" t="s">
-        <x:v>254</x:v>
+        <x:v>207</x:v>
       </x:c>
       <x:c r="B52" s="0" t="s">
-        <x:v>255</x:v>
+        <x:v>208</x:v>
       </x:c>
       <x:c r="C52" s="0" t="n">
-        <x:v>2813</x:v>
+        <x:v>13684</x:v>
       </x:c>
       <x:c r="D52" s="0" t="n">
-        <x:v>2749</x:v>
+        <x:v>12949</x:v>
       </x:c>
       <x:c r="E52" s="0" t="n">
-        <x:v>2690</x:v>
-      </x:c>
-      <x:c r="F52" s="0" t="s">
-        <x:v>256</x:v>
+        <x:v>35.03</x:v>
+      </x:c>
+      <x:c r="F52" s="0" t="n">
+        <x:v>3117702</x:v>
       </x:c>
       <x:c r="G52" s="0" t="s">
-        <x:v>257</x:v>
+        <x:v>209</x:v>
       </x:c>
       <x:c r="H52" s="0" t="s">
-        <x:v>258</x:v>
+        <x:v>210</x:v>
       </x:c>
       <x:c r="I52" s="0" t="n">
         <x:v>1</x:v>
@@ -3377,28 +3101,28 @@
     </x:row>
     <x:row r="53" spans="1:9">
       <x:c r="A53" s="0" t="s">
-        <x:v>259</x:v>
+        <x:v>211</x:v>
       </x:c>
       <x:c r="B53" s="0" t="s">
-        <x:v>260</x:v>
+        <x:v>212</x:v>
       </x:c>
       <x:c r="C53" s="0" t="n">
-        <x:v>13684</x:v>
+        <x:v>11748</x:v>
       </x:c>
       <x:c r="D53" s="0" t="n">
-        <x:v>12949</x:v>
+        <x:v>10388</x:v>
       </x:c>
       <x:c r="E53" s="0" t="n">
-        <x:v>3503</x:v>
-      </x:c>
-      <x:c r="F53" s="0" t="s">
-        <x:v>261</x:v>
+        <x:v>56.77</x:v>
+      </x:c>
+      <x:c r="F53" s="0" t="n">
+        <x:v>3117801</x:v>
       </x:c>
       <x:c r="G53" s="0" t="s">
-        <x:v>262</x:v>
+        <x:v>213</x:v>
       </x:c>
       <x:c r="H53" s="0" t="s">
-        <x:v>263</x:v>
+        <x:v>214</x:v>
       </x:c>
       <x:c r="I53" s="0" t="n">
         <x:v>1</x:v>
@@ -3406,28 +3130,28 @@
     </x:row>
     <x:row r="54" spans="1:9">
       <x:c r="A54" s="0" t="s">
-        <x:v>264</x:v>
+        <x:v>215</x:v>
       </x:c>
       <x:c r="B54" s="0" t="s">
-        <x:v>265</x:v>
+        <x:v>216</x:v>
       </x:c>
       <x:c r="C54" s="0" t="n">
-        <x:v>11748</x:v>
+        <x:v>12082</x:v>
       </x:c>
       <x:c r="D54" s="0" t="n">
-        <x:v>10388</x:v>
+        <x:v>10468</x:v>
       </x:c>
       <x:c r="E54" s="0" t="n">
-        <x:v>5677</x:v>
-      </x:c>
-      <x:c r="F54" s="0" t="s">
-        <x:v>266</x:v>
+        <x:v>51.03</x:v>
+      </x:c>
+      <x:c r="F54" s="0" t="n">
+        <x:v>3117900</x:v>
       </x:c>
       <x:c r="G54" s="0" t="s">
-        <x:v>267</x:v>
+        <x:v>217</x:v>
       </x:c>
       <x:c r="H54" s="0" t="s">
-        <x:v>268</x:v>
+        <x:v>218</x:v>
       </x:c>
       <x:c r="I54" s="0" t="n">
         <x:v>1</x:v>
@@ -3435,28 +3159,28 @@
     </x:row>
     <x:row r="55" spans="1:9">
       <x:c r="A55" s="0" t="s">
-        <x:v>269</x:v>
+        <x:v>219</x:v>
       </x:c>
       <x:c r="B55" s="0" t="s">
-        <x:v>270</x:v>
+        <x:v>220</x:v>
       </x:c>
       <x:c r="C55" s="0" t="n">
-        <x:v>12082</x:v>
+        <x:v>1784</x:v>
       </x:c>
       <x:c r="D55" s="0" t="n">
-        <x:v>10468</x:v>
+        <x:v>1727</x:v>
       </x:c>
       <x:c r="E55" s="0" t="n">
-        <x:v>5103</x:v>
-      </x:c>
-      <x:c r="F55" s="0" t="s">
-        <x:v>271</x:v>
+        <x:v>19.99</x:v>
+      </x:c>
+      <x:c r="F55" s="0" t="n">
+        <x:v>3118502</x:v>
       </x:c>
       <x:c r="G55" s="0" t="s">
-        <x:v>272</x:v>
+        <x:v>221</x:v>
       </x:c>
       <x:c r="H55" s="0" t="s">
-        <x:v>273</x:v>
+        <x:v>222</x:v>
       </x:c>
       <x:c r="I55" s="0" t="n">
         <x:v>1</x:v>
@@ -3464,28 +3188,28 @@
     </x:row>
     <x:row r="56" spans="1:9">
       <x:c r="A56" s="0" t="s">
-        <x:v>274</x:v>
+        <x:v>223</x:v>
       </x:c>
       <x:c r="B56" s="0" t="s">
-        <x:v>275</x:v>
+        <x:v>224</x:v>
       </x:c>
       <x:c r="C56" s="0" t="n">
-        <x:v>1784</x:v>
+        <x:v>9128</x:v>
       </x:c>
       <x:c r="D56" s="0" t="n">
-        <x:v>1727</x:v>
+        <x:v>9289</x:v>
       </x:c>
       <x:c r="E56" s="0" t="n">
-        <x:v>1999</x:v>
-      </x:c>
-      <x:c r="F56" s="0" t="s">
-        <x:v>276</x:v>
+        <x:v>31.36</x:v>
+      </x:c>
+      <x:c r="F56" s="0" t="n">
+        <x:v>3118700</x:v>
       </x:c>
       <x:c r="G56" s="0" t="s">
-        <x:v>277</x:v>
+        <x:v>225</x:v>
       </x:c>
       <x:c r="H56" s="0" t="s">
-        <x:v>278</x:v>
+        <x:v>226</x:v>
       </x:c>
       <x:c r="I56" s="0" t="n">
         <x:v>1</x:v>
@@ -3493,28 +3217,28 @@
     </x:row>
     <x:row r="57" spans="1:9">
       <x:c r="A57" s="0" t="s">
-        <x:v>279</x:v>
+        <x:v>227</x:v>
       </x:c>
       <x:c r="B57" s="0" t="s">
-        <x:v>280</x:v>
+        <x:v>228</x:v>
       </x:c>
       <x:c r="C57" s="0" t="n">
-        <x:v>9128</x:v>
+        <x:v>3542</x:v>
       </x:c>
       <x:c r="D57" s="0" t="n">
-        <x:v>9289</x:v>
+        <x:v>3435</x:v>
       </x:c>
       <x:c r="E57" s="0" t="n">
-        <x:v>3136</x:v>
-      </x:c>
-      <x:c r="F57" s="0" t="s">
-        <x:v>281</x:v>
+        <x:v>19.13</x:v>
+      </x:c>
+      <x:c r="F57" s="0" t="n">
+        <x:v>3119005</x:v>
       </x:c>
       <x:c r="G57" s="0" t="s">
-        <x:v>282</x:v>
+        <x:v>229</x:v>
       </x:c>
       <x:c r="H57" s="0" t="s">
-        <x:v>283</x:v>
+        <x:v>230</x:v>
       </x:c>
       <x:c r="I57" s="0" t="n">
         <x:v>1</x:v>
@@ -3522,28 +3246,28 @@
     </x:row>
     <x:row r="58" spans="1:9">
       <x:c r="A58" s="0" t="s">
-        <x:v>284</x:v>
+        <x:v>231</x:v>
       </x:c>
       <x:c r="B58" s="0" t="s">
-        <x:v>285</x:v>
+        <x:v>232</x:v>
       </x:c>
       <x:c r="C58" s="0" t="n">
-        <x:v>3542</x:v>
+        <x:v>12931</x:v>
       </x:c>
       <x:c r="D58" s="0" t="n">
-        <x:v>3435</x:v>
+        <x:v>11286</x:v>
       </x:c>
       <x:c r="E58" s="0" t="n">
-        <x:v>1913</x:v>
-      </x:c>
-      <x:c r="F58" s="0" t="s">
-        <x:v>286</x:v>
+        <x:v>17.96</x:v>
+      </x:c>
+      <x:c r="F58" s="0" t="n">
+        <x:v>3120201</x:v>
       </x:c>
       <x:c r="G58" s="0" t="s">
-        <x:v>287</x:v>
+        <x:v>233</x:v>
       </x:c>
       <x:c r="H58" s="0" t="s">
-        <x:v>288</x:v>
+        <x:v>234</x:v>
       </x:c>
       <x:c r="I58" s="0" t="n">
         <x:v>1</x:v>
@@ -3551,28 +3275,28 @@
     </x:row>
     <x:row r="59" spans="1:9">
       <x:c r="A59" s="0" t="s">
-        <x:v>289</x:v>
+        <x:v>235</x:v>
       </x:c>
       <x:c r="B59" s="0" t="s">
-        <x:v>290</x:v>
+        <x:v>236</x:v>
       </x:c>
       <x:c r="C59" s="0" t="n">
-        <x:v>12931</x:v>
+        <x:v>10226</x:v>
       </x:c>
       <x:c r="D59" s="0" t="n">
-        <x:v>11286</x:v>
+        <x:v>10210</x:v>
       </x:c>
       <x:c r="E59" s="0" t="n">
-        <x:v>1796</x:v>
-      </x:c>
-      <x:c r="F59" s="0" t="s">
-        <x:v>291</x:v>
+        <x:v>32.79</x:v>
+      </x:c>
+      <x:c r="F59" s="0" t="n">
+        <x:v>3120508</x:v>
       </x:c>
       <x:c r="G59" s="0" t="s">
-        <x:v>292</x:v>
+        <x:v>237</x:v>
       </x:c>
       <x:c r="H59" s="0" t="s">
-        <x:v>293</x:v>
+        <x:v>238</x:v>
       </x:c>
       <x:c r="I59" s="0" t="n">
         <x:v>1</x:v>
@@ -3580,57 +3304,57 @@
     </x:row>
     <x:row r="60" spans="1:9">
       <x:c r="A60" s="0" t="s">
-        <x:v>294</x:v>
+        <x:v>239</x:v>
       </x:c>
       <x:c r="B60" s="0" t="s">
-        <x:v>295</x:v>
+        <x:v>240</x:v>
       </x:c>
       <x:c r="C60" s="0" t="n">
-        <x:v>10226</x:v>
+        <x:v>15474</x:v>
       </x:c>
       <x:c r="D60" s="0" t="n">
-        <x:v>10210</x:v>
+        <x:v>14591</x:v>
       </x:c>
       <x:c r="E60" s="0" t="n">
-        <x:v>3279</x:v>
-      </x:c>
-      <x:c r="F60" s="0" t="s">
-        <x:v>296</x:v>
+        <x:v>27.93</x:v>
+      </x:c>
+      <x:c r="F60" s="0" t="n">
+        <x:v>3120805</x:v>
       </x:c>
       <x:c r="G60" s="0" t="s">
-        <x:v>297</x:v>
+        <x:v>241</x:v>
       </x:c>
       <x:c r="H60" s="0" t="s">
-        <x:v>298</x:v>
+        <x:v>242</x:v>
       </x:c>
       <x:c r="I60" s="0" t="n">
-        <x:v>1</x:v>
+        <x:v>2</x:v>
       </x:c>
     </x:row>
     <x:row r="61" spans="1:9">
       <x:c r="A61" s="0" t="s">
-        <x:v>299</x:v>
+        <x:v>243</x:v>
       </x:c>
       <x:c r="B61" s="0" t="s">
-        <x:v>300</x:v>
+        <x:v>244</x:v>
       </x:c>
       <x:c r="C61" s="0" t="n">
-        <x:v>15474</x:v>
+        <x:v>17740</x:v>
       </x:c>
       <x:c r="D61" s="0" t="n">
-        <x:v>14591</x:v>
+        <x:v>17412</x:v>
       </x:c>
       <x:c r="E61" s="0" t="n">
-        <x:v>2793</x:v>
-      </x:c>
-      <x:c r="F61" s="0" t="s">
-        <x:v>301</x:v>
+        <x:v>26.15</x:v>
+      </x:c>
+      <x:c r="F61" s="0" t="n">
+        <x:v>3115102</x:v>
       </x:c>
       <x:c r="G61" s="0" t="s">
-        <x:v>302</x:v>
+        <x:v>245</x:v>
       </x:c>
       <x:c r="H61" s="0" t="s">
-        <x:v>303</x:v>
+        <x:v>246</x:v>
       </x:c>
       <x:c r="I61" s="0" t="n">
         <x:v>2</x:v>
@@ -3638,57 +3362,57 @@
     </x:row>
     <x:row r="62" spans="1:9">
       <x:c r="A62" s="0" t="s">
-        <x:v>304</x:v>
+        <x:v>247</x:v>
       </x:c>
       <x:c r="B62" s="0" t="s">
-        <x:v>305</x:v>
+        <x:v>248</x:v>
       </x:c>
       <x:c r="C62" s="0" t="n">
-        <x:v>17740</x:v>
+        <x:v>3694</x:v>
       </x:c>
       <x:c r="D62" s="0" t="n">
-        <x:v>17412</x:v>
+        <x:v>3730</x:v>
       </x:c>
       <x:c r="E62" s="0" t="n">
-        <x:v>2615</x:v>
-      </x:c>
-      <x:c r="F62" s="0" t="s">
-        <x:v>306</x:v>
+        <x:v>30.17</x:v>
+      </x:c>
+      <x:c r="F62" s="0" t="n">
+        <x:v>3119906</x:v>
       </x:c>
       <x:c r="G62" s="0" t="s">
-        <x:v>307</x:v>
+        <x:v>249</x:v>
       </x:c>
       <x:c r="H62" s="0" t="s">
-        <x:v>308</x:v>
+        <x:v>250</x:v>
       </x:c>
       <x:c r="I62" s="0" t="n">
-        <x:v>2</x:v>
+        <x:v>1</x:v>
       </x:c>
     </x:row>
     <x:row r="63" spans="1:9">
       <x:c r="A63" s="0" t="s">
-        <x:v>309</x:v>
+        <x:v>251</x:v>
       </x:c>
       <x:c r="B63" s="0" t="s">
-        <x:v>310</x:v>
+        <x:v>252</x:v>
       </x:c>
       <x:c r="C63" s="0" t="n">
-        <x:v>3694</x:v>
+        <x:v>8016</x:v>
       </x:c>
       <x:c r="D63" s="0" t="n">
-        <x:v>3730</x:v>
+        <x:v>7971</x:v>
       </x:c>
       <x:c r="E63" s="0" t="n">
-        <x:v>3017</x:v>
-      </x:c>
-      <x:c r="F63" s="0" t="s">
-        <x:v>311</x:v>
+        <x:v>19.51</x:v>
+      </x:c>
+      <x:c r="F63" s="0" t="n">
+        <x:v>3121100</x:v>
       </x:c>
       <x:c r="G63" s="0" t="s">
-        <x:v>312</x:v>
+        <x:v>253</x:v>
       </x:c>
       <x:c r="H63" s="0" t="s">
-        <x:v>313</x:v>
+        <x:v>254</x:v>
       </x:c>
       <x:c r="I63" s="0" t="n">
         <x:v>1</x:v>
@@ -3696,28 +3420,28 @@
     </x:row>
     <x:row r="64" spans="1:9">
       <x:c r="A64" s="0" t="s">
-        <x:v>314</x:v>
+        <x:v>255</x:v>
       </x:c>
       <x:c r="B64" s="0" t="s">
-        <x:v>315</x:v>
+        <x:v>256</x:v>
       </x:c>
       <x:c r="C64" s="0" t="n">
-        <x:v>8016</x:v>
+        <x:v>7131</x:v>
       </x:c>
       <x:c r="D64" s="0" t="n">
-        <x:v>7971</x:v>
+        <x:v>6830</x:v>
       </x:c>
       <x:c r="E64" s="0" t="n">
-        <x:v>1951</x:v>
-      </x:c>
-      <x:c r="F64" s="0" t="s">
-        <x:v>316</x:v>
+        <x:v>4.95</x:v>
+      </x:c>
+      <x:c r="F64" s="0" t="n">
+        <x:v>3121209</x:v>
       </x:c>
       <x:c r="G64" s="0" t="s">
-        <x:v>317</x:v>
+        <x:v>257</x:v>
       </x:c>
       <x:c r="H64" s="0" t="s">
-        <x:v>318</x:v>
+        <x:v>258</x:v>
       </x:c>
       <x:c r="I64" s="0" t="n">
         <x:v>1</x:v>
@@ -3725,28 +3449,28 @@
     </x:row>
     <x:row r="65" spans="1:9">
       <x:c r="A65" s="0" t="s">
-        <x:v>319</x:v>
+        <x:v>259</x:v>
       </x:c>
       <x:c r="B65" s="0" t="s">
-        <x:v>320</x:v>
+        <x:v>260</x:v>
       </x:c>
       <x:c r="C65" s="0" t="n">
-        <x:v>7131</x:v>
+        <x:v>6025</x:v>
       </x:c>
       <x:c r="D65" s="0" t="n">
-        <x:v>6830</x:v>
+        <x:v>5763</x:v>
       </x:c>
       <x:c r="E65" s="0" t="n">
-        <x:v>495</x:v>
-      </x:c>
-      <x:c r="F65" s="0" t="s">
-        <x:v>321</x:v>
+        <x:v>26.56</x:v>
+      </x:c>
+      <x:c r="F65" s="0" t="n">
+        <x:v>3122405</x:v>
       </x:c>
       <x:c r="G65" s="0" t="s">
-        <x:v>322</x:v>
+        <x:v>261</x:v>
       </x:c>
       <x:c r="H65" s="0" t="s">
-        <x:v>323</x:v>
+        <x:v>262</x:v>
       </x:c>
       <x:c r="I65" s="0" t="n">
         <x:v>1</x:v>
@@ -3754,28 +3478,28 @@
     </x:row>
     <x:row r="66" spans="1:9">
       <x:c r="A66" s="0" t="s">
-        <x:v>324</x:v>
+        <x:v>263</x:v>
       </x:c>
       <x:c r="B66" s="0" t="s">
-        <x:v>325</x:v>
+        <x:v>264</x:v>
       </x:c>
       <x:c r="C66" s="0" t="n">
-        <x:v>6025</x:v>
+        <x:v>2997</x:v>
       </x:c>
       <x:c r="D66" s="0" t="n">
-        <x:v>5763</x:v>
+        <x:v>2994</x:v>
       </x:c>
       <x:c r="E66" s="0" t="n">
-        <x:v>2656</x:v>
-      </x:c>
-      <x:c r="F66" s="0" t="s">
-        <x:v>326</x:v>
+        <x:v>26.28</x:v>
+      </x:c>
+      <x:c r="F66" s="0" t="n">
+        <x:v>3122801</x:v>
       </x:c>
       <x:c r="G66" s="0" t="s">
-        <x:v>327</x:v>
+        <x:v>265</x:v>
       </x:c>
       <x:c r="H66" s="0" t="s">
-        <x:v>328</x:v>
+        <x:v>266</x:v>
       </x:c>
       <x:c r="I66" s="0" t="n">
         <x:v>1</x:v>
@@ -3783,28 +3507,28 @@
     </x:row>
     <x:row r="67" spans="1:9">
       <x:c r="A67" s="0" t="s">
-        <x:v>329</x:v>
+        <x:v>267</x:v>
       </x:c>
       <x:c r="B67" s="0" t="s">
-        <x:v>330</x:v>
+        <x:v>268</x:v>
       </x:c>
       <x:c r="C67" s="0" t="n">
         <x:v>2997</x:v>
       </x:c>
       <x:c r="D67" s="0" t="n">
-        <x:v>2994</x:v>
+        <x:v>1440</x:v>
       </x:c>
       <x:c r="E67" s="0" t="n">
-        <x:v>2628</x:v>
-      </x:c>
-      <x:c r="F67" s="0" t="s">
-        <x:v>331</x:v>
+        <x:v>9.42</x:v>
+      </x:c>
+      <x:c r="F67" s="0" t="n">
+        <x:v>3123403</x:v>
       </x:c>
       <x:c r="G67" s="0" t="s">
-        <x:v>332</x:v>
+        <x:v>269</x:v>
       </x:c>
       <x:c r="H67" s="0" t="s">
-        <x:v>333</x:v>
+        <x:v>270</x:v>
       </x:c>
       <x:c r="I67" s="0" t="n">
         <x:v>1</x:v>
@@ -3812,86 +3536,86 @@
     </x:row>
     <x:row r="68" spans="1:9">
       <x:c r="A68" s="0" t="s">
-        <x:v>334</x:v>
+        <x:v>271</x:v>
       </x:c>
       <x:c r="B68" s="0" t="s">
-        <x:v>335</x:v>
+        <x:v>272</x:v>
       </x:c>
       <x:c r="C68" s="0" t="n">
-        <x:v>1533</x:v>
+        <x:v>28320</x:v>
       </x:c>
       <x:c r="D68" s="0" t="n">
-        <x:v>1440</x:v>
+        <x:v>25220</x:v>
       </x:c>
       <x:c r="E68" s="0" t="n">
-        <x:v>942</x:v>
-      </x:c>
-      <x:c r="F68" s="0" t="s">
-        <x:v>336</x:v>
+        <x:v>50.49</x:v>
+      </x:c>
+      <x:c r="F68" s="0" t="n">
+        <x:v>3123601</x:v>
       </x:c>
       <x:c r="G68" s="0" t="s">
-        <x:v>337</x:v>
+        <x:v>273</x:v>
       </x:c>
       <x:c r="H68" s="0" t="s">
-        <x:v>338</x:v>
+        <x:v>274</x:v>
       </x:c>
       <x:c r="I68" s="0" t="n">
-        <x:v>1</x:v>
+        <x:v>2</x:v>
       </x:c>
     </x:row>
     <x:row r="69" spans="1:9">
       <x:c r="A69" s="0" t="s">
-        <x:v>339</x:v>
+        <x:v>275</x:v>
       </x:c>
       <x:c r="B69" s="0" t="s">
-        <x:v>340</x:v>
+        <x:v>276</x:v>
       </x:c>
       <x:c r="C69" s="0" t="n">
-        <x:v>28320</x:v>
+        <x:v>4710</x:v>
       </x:c>
       <x:c r="D69" s="0" t="n">
-        <x:v>25220</x:v>
+        <x:v>4429</x:v>
       </x:c>
       <x:c r="E69" s="0" t="n">
-        <x:v>5049</x:v>
-      </x:c>
-      <x:c r="F69" s="0" t="s">
-        <x:v>341</x:v>
+        <x:v>16.78</x:v>
+      </x:c>
+      <x:c r="F69" s="0" t="n">
+        <x:v>3124401</x:v>
       </x:c>
       <x:c r="G69" s="0" t="s">
-        <x:v>342</x:v>
+        <x:v>277</x:v>
       </x:c>
       <x:c r="H69" s="0" t="s">
-        <x:v>343</x:v>
+        <x:v>278</x:v>
       </x:c>
       <x:c r="I69" s="0" t="n">
-        <x:v>2</x:v>
+        <x:v>1</x:v>
       </x:c>
     </x:row>
     <x:row r="70" spans="1:9">
       <x:c r="A70" s="0" t="s">
-        <x:v>344</x:v>
+        <x:v>279</x:v>
       </x:c>
       <x:c r="B70" s="0" t="s">
-        <x:v>345</x:v>
+        <x:v>280</x:v>
       </x:c>
       <x:c r="C70" s="0" t="n">
-        <x:v>4710</x:v>
+        <x:v>11386</x:v>
       </x:c>
       <x:c r="D70" s="0" t="n">
-        <x:v>4429</x:v>
+        <x:v>10845</x:v>
       </x:c>
       <x:c r="E70" s="0" t="n">
-        <x:v>1678</x:v>
-      </x:c>
-      <x:c r="F70" s="0" t="s">
-        <x:v>346</x:v>
+        <x:v>44.47</x:v>
+      </x:c>
+      <x:c r="F70" s="0" t="n">
+        <x:v>3124500</x:v>
       </x:c>
       <x:c r="G70" s="0" t="s">
-        <x:v>347</x:v>
+        <x:v>281</x:v>
       </x:c>
       <x:c r="H70" s="0" t="s">
-        <x:v>348</x:v>
+        <x:v>282</x:v>
       </x:c>
       <x:c r="I70" s="0" t="n">
         <x:v>1</x:v>
@@ -3899,86 +3623,86 @@
     </x:row>
     <x:row r="71" spans="1:9">
       <x:c r="A71" s="0" t="s">
-        <x:v>349</x:v>
+        <x:v>283</x:v>
       </x:c>
       <x:c r="B71" s="0" t="s">
-        <x:v>350</x:v>
+        <x:v>284</x:v>
       </x:c>
       <x:c r="C71" s="0" t="n">
-        <x:v>11386</x:v>
+        <x:v>36951</x:v>
       </x:c>
       <x:c r="D71" s="0" t="n">
-        <x:v>10845</x:v>
+        <x:v>28599</x:v>
       </x:c>
       <x:c r="E71" s="0" t="n">
-        <x:v>4447</x:v>
-      </x:c>
-      <x:c r="F71" s="0" t="s">
-        <x:v>351</x:v>
+        <x:v>116.93</x:v>
+      </x:c>
+      <x:c r="F71" s="0" t="n">
+        <x:v>3125101</x:v>
       </x:c>
       <x:c r="G71" s="0" t="s">
-        <x:v>352</x:v>
+        <x:v>285</x:v>
       </x:c>
       <x:c r="H71" s="0" t="s">
-        <x:v>353</x:v>
+        <x:v>286</x:v>
       </x:c>
       <x:c r="I71" s="0" t="n">
-        <x:v>1</x:v>
+        <x:v>3</x:v>
       </x:c>
     </x:row>
     <x:row r="72" spans="1:9">
       <x:c r="A72" s="0" t="s">
-        <x:v>354</x:v>
+        <x:v>287</x:v>
       </x:c>
       <x:c r="B72" s="0" t="s">
-        <x:v>355</x:v>
+        <x:v>288</x:v>
       </x:c>
       <x:c r="C72" s="0" t="n">
-        <x:v>36951</x:v>
+        <x:v>2376</x:v>
       </x:c>
       <x:c r="D72" s="0" t="n">
-        <x:v>28599</x:v>
+        <x:v>2350</x:v>
       </x:c>
       <x:c r="E72" s="0" t="n">
-        <x:v>11693</x:v>
-      </x:c>
-      <x:c r="F72" s="0" t="s">
-        <x:v>356</x:v>
+        <x:v>27.32</x:v>
+      </x:c>
+      <x:c r="F72" s="0" t="n">
+        <x:v>3125200</x:v>
       </x:c>
       <x:c r="G72" s="0" t="s">
-        <x:v>357</x:v>
+        <x:v>289</x:v>
       </x:c>
       <x:c r="H72" s="0" t="s">
-        <x:v>358</x:v>
+        <x:v>290</x:v>
       </x:c>
       <x:c r="I72" s="0" t="n">
-        <x:v>3</x:v>
+        <x:v>1</x:v>
       </x:c>
     </x:row>
     <x:row r="73" spans="1:9">
       <x:c r="A73" s="0" t="s">
-        <x:v>359</x:v>
+        <x:v>291</x:v>
       </x:c>
       <x:c r="B73" s="0" t="s">
-        <x:v>360</x:v>
+        <x:v>292</x:v>
       </x:c>
       <x:c r="C73" s="0" t="n">
-        <x:v>2376</x:v>
+        <x:v>4437</x:v>
       </x:c>
       <x:c r="D73" s="0" t="n">
-        <x:v>2350</x:v>
+        <x:v>4098</x:v>
       </x:c>
       <x:c r="E73" s="0" t="n">
-        <x:v>2732</x:v>
-      </x:c>
-      <x:c r="F73" s="0" t="s">
-        <x:v>361</x:v>
+        <x:v>18.73</x:v>
+      </x:c>
+      <x:c r="F73" s="0" t="n">
+        <x:v>3126307</x:v>
       </x:c>
       <x:c r="G73" s="0" t="s">
-        <x:v>362</x:v>
+        <x:v>293</x:v>
       </x:c>
       <x:c r="H73" s="0" t="s">
-        <x:v>363</x:v>
+        <x:v>294</x:v>
       </x:c>
       <x:c r="I73" s="0" t="n">
         <x:v>1</x:v>
@@ -3986,28 +3710,28 @@
     </x:row>
     <x:row r="74" spans="1:9">
       <x:c r="A74" s="0" t="s">
-        <x:v>364</x:v>
+        <x:v>295</x:v>
       </x:c>
       <x:c r="B74" s="0" t="s">
-        <x:v>365</x:v>
+        <x:v>296</x:v>
       </x:c>
       <x:c r="C74" s="0" t="n">
-        <x:v>4437</x:v>
+        <x:v>4355</x:v>
       </x:c>
       <x:c r="D74" s="0" t="n">
-        <x:v>4098</x:v>
+        <x:v>4220</x:v>
       </x:c>
       <x:c r="E74" s="0" t="n">
-        <x:v>1873</x:v>
-      </x:c>
-      <x:c r="F74" s="0" t="s">
-        <x:v>366</x:v>
+        <x:v>22.52</x:v>
+      </x:c>
+      <x:c r="F74" s="0" t="n">
+        <x:v>3127404</x:v>
       </x:c>
       <x:c r="G74" s="0" t="s">
-        <x:v>367</x:v>
+        <x:v>297</x:v>
       </x:c>
       <x:c r="H74" s="0" t="s">
-        <x:v>368</x:v>
+        <x:v>298</x:v>
       </x:c>
       <x:c r="I74" s="0" t="n">
         <x:v>1</x:v>
@@ -4015,28 +3739,28 @@
     </x:row>
     <x:row r="75" spans="1:9">
       <x:c r="A75" s="0" t="s">
-        <x:v>369</x:v>
+        <x:v>299</x:v>
       </x:c>
       <x:c r="B75" s="0" t="s">
-        <x:v>370</x:v>
+        <x:v>300</x:v>
       </x:c>
       <x:c r="C75" s="0" t="n">
-        <x:v>4355</x:v>
+        <x:v>14258</x:v>
       </x:c>
       <x:c r="D75" s="0" t="n">
-        <x:v>4220</x:v>
+        <x:v>13872</x:v>
       </x:c>
       <x:c r="E75" s="0" t="n">
-        <x:v>2252</x:v>
-      </x:c>
-      <x:c r="F75" s="0" t="s">
-        <x:v>371</x:v>
+        <x:v>14.85</x:v>
+      </x:c>
+      <x:c r="F75" s="0" t="n">
+        <x:v>3128105</x:v>
       </x:c>
       <x:c r="G75" s="0" t="s">
-        <x:v>372</x:v>
+        <x:v>301</x:v>
       </x:c>
       <x:c r="H75" s="0" t="s">
-        <x:v>373</x:v>
+        <x:v>302</x:v>
       </x:c>
       <x:c r="I75" s="0" t="n">
         <x:v>1</x:v>
@@ -4044,115 +3768,115 @@
     </x:row>
     <x:row r="76" spans="1:9">
       <x:c r="A76" s="0" t="s">
-        <x:v>374</x:v>
+        <x:v>303</x:v>
       </x:c>
       <x:c r="B76" s="0" t="s">
-        <x:v>375</x:v>
+        <x:v>304</x:v>
       </x:c>
       <x:c r="C76" s="0" t="n">
-        <x:v>14258</x:v>
+        <x:v>19017</x:v>
       </x:c>
       <x:c r="D76" s="0" t="n">
-        <x:v>13872</x:v>
+        <x:v>18714</x:v>
       </x:c>
       <x:c r="E76" s="0" t="n">
-        <x:v>1485</x:v>
-      </x:c>
-      <x:c r="F76" s="0" t="s">
-        <x:v>376</x:v>
+        <x:v>63.47</x:v>
+      </x:c>
+      <x:c r="F76" s="0" t="n">
+        <x:v>3128303</x:v>
       </x:c>
       <x:c r="G76" s="0" t="s">
-        <x:v>377</x:v>
+        <x:v>305</x:v>
       </x:c>
       <x:c r="H76" s="0" t="s">
-        <x:v>378</x:v>
+        <x:v>306</x:v>
       </x:c>
       <x:c r="I76" s="0" t="n">
-        <x:v>1</x:v>
+        <x:v>2</x:v>
       </x:c>
     </x:row>
     <x:row r="77" spans="1:9">
       <x:c r="A77" s="0" t="s">
-        <x:v>379</x:v>
+        <x:v>307</x:v>
       </x:c>
       <x:c r="B77" s="0" t="s">
-        <x:v>380</x:v>
+        <x:v>308</x:v>
       </x:c>
       <x:c r="C77" s="0" t="n">
-        <x:v>19017</x:v>
+        <x:v>52078</x:v>
       </x:c>
       <x:c r="D77" s="0" t="n">
-        <x:v>18714</x:v>
+        <x:v>49430</x:v>
       </x:c>
       <x:c r="E77" s="0" t="n">
-        <x:v>6347</x:v>
-      </x:c>
-      <x:c r="F77" s="0" t="s">
-        <x:v>381</x:v>
+        <x:v>172.59</x:v>
+      </x:c>
+      <x:c r="F77" s="0" t="n">
+        <x:v>3128709</x:v>
       </x:c>
       <x:c r="G77" s="0" t="s">
-        <x:v>382</x:v>
+        <x:v>309</x:v>
       </x:c>
       <x:c r="H77" s="0" t="s">
-        <x:v>383</x:v>
+        <x:v>310</x:v>
       </x:c>
       <x:c r="I77" s="0" t="n">
-        <x:v>2</x:v>
+        <x:v>3</x:v>
       </x:c>
     </x:row>
     <x:row r="78" spans="1:9">
       <x:c r="A78" s="0" t="s">
-        <x:v>384</x:v>
+        <x:v>311</x:v>
       </x:c>
       <x:c r="B78" s="0" t="s">
-        <x:v>385</x:v>
+        <x:v>312</x:v>
       </x:c>
       <x:c r="C78" s="0" t="n">
-        <x:v>52078</x:v>
+        <x:v>6591</x:v>
       </x:c>
       <x:c r="D78" s="0" t="n">
-        <x:v>49430</x:v>
+        <x:v>6121</x:v>
       </x:c>
       <x:c r="E78" s="0" t="n">
-        <x:v>17259</x:v>
-      </x:c>
-      <x:c r="F78" s="0" t="s">
-        <x:v>386</x:v>
+        <x:v>39.76</x:v>
+      </x:c>
+      <x:c r="F78" s="0" t="n">
+        <x:v>3129202</x:v>
       </x:c>
       <x:c r="G78" s="0" t="s">
-        <x:v>387</x:v>
+        <x:v>313</x:v>
       </x:c>
       <x:c r="H78" s="0" t="s">
-        <x:v>388</x:v>
+        <x:v>314</x:v>
       </x:c>
       <x:c r="I78" s="0" t="n">
-        <x:v>3</x:v>
+        <x:v>1</x:v>
       </x:c>
     </x:row>
     <x:row r="79" spans="1:9">
       <x:c r="A79" s="0" t="s">
-        <x:v>389</x:v>
+        <x:v>315</x:v>
       </x:c>
       <x:c r="B79" s="0" t="s">
-        <x:v>390</x:v>
+        <x:v>316</x:v>
       </x:c>
       <x:c r="C79" s="0" t="n">
-        <x:v>6591</x:v>
+        <x:v>13986</x:v>
       </x:c>
       <x:c r="D79" s="0" t="n">
-        <x:v>6121</x:v>
+        <x:v>12176</x:v>
       </x:c>
       <x:c r="E79" s="0" t="n">
-        <x:v>3976</x:v>
-      </x:c>
-      <x:c r="F79" s="0" t="s">
-        <x:v>391</x:v>
+        <x:v>21.66</x:v>
+      </x:c>
+      <x:c r="F79" s="0" t="n">
+        <x:v>3129707</x:v>
       </x:c>
       <x:c r="G79" s="0" t="s">
-        <x:v>392</x:v>
+        <x:v>317</x:v>
       </x:c>
       <x:c r="H79" s="0" t="s">
-        <x:v>393</x:v>
+        <x:v>318</x:v>
       </x:c>
       <x:c r="I79" s="0" t="n">
         <x:v>1</x:v>
@@ -4160,28 +3884,28 @@
     </x:row>
     <x:row r="80" spans="1:9">
       <x:c r="A80" s="0" t="s">
-        <x:v>394</x:v>
+        <x:v>319</x:v>
       </x:c>
       <x:c r="B80" s="0" t="s">
-        <x:v>395</x:v>
+        <x:v>320</x:v>
       </x:c>
       <x:c r="C80" s="0" t="n">
-        <x:v>13986</x:v>
+        <x:v>3492</x:v>
       </x:c>
       <x:c r="D80" s="0" t="n">
-        <x:v>12176</x:v>
+        <x:v>3382</x:v>
       </x:c>
       <x:c r="E80" s="0" t="n">
-        <x:v>2166</x:v>
-      </x:c>
-      <x:c r="F80" s="0" t="s">
-        <x:v>396</x:v>
+        <x:v>49.51</x:v>
+      </x:c>
+      <x:c r="F80" s="0" t="n">
+        <x:v>3129905</x:v>
       </x:c>
       <x:c r="G80" s="0" t="s">
-        <x:v>397</x:v>
+        <x:v>321</x:v>
       </x:c>
       <x:c r="H80" s="0" t="s">
-        <x:v>398</x:v>
+        <x:v>322</x:v>
       </x:c>
       <x:c r="I80" s="0" t="n">
         <x:v>1</x:v>
@@ -4189,28 +3913,28 @@
     </x:row>
     <x:row r="81" spans="1:9">
       <x:c r="A81" s="0" t="s">
-        <x:v>399</x:v>
+        <x:v>323</x:v>
       </x:c>
       <x:c r="B81" s="0" t="s">
-        <x:v>400</x:v>
+        <x:v>324</x:v>
       </x:c>
       <x:c r="C81" s="0" t="n">
-        <x:v>3492</x:v>
+        <x:v>2996</x:v>
       </x:c>
       <x:c r="D81" s="0" t="n">
-        <x:v>3382</x:v>
+        <x:v>2866</x:v>
       </x:c>
       <x:c r="E81" s="0" t="n">
-        <x:v>4951</x:v>
-      </x:c>
-      <x:c r="F81" s="0" t="s">
-        <x:v>401</x:v>
+        <x:v>18.72</x:v>
+      </x:c>
+      <x:c r="F81" s="0" t="n">
+        <x:v>3130002</x:v>
       </x:c>
       <x:c r="G81" s="0" t="s">
-        <x:v>402</x:v>
+        <x:v>325</x:v>
       </x:c>
       <x:c r="H81" s="0" t="s">
-        <x:v>403</x:v>
+        <x:v>326</x:v>
       </x:c>
       <x:c r="I81" s="0" t="n">
         <x:v>1</x:v>
@@ -4218,28 +3942,28 @@
     </x:row>
     <x:row r="82" spans="1:9">
       <x:c r="A82" s="0" t="s">
-        <x:v>404</x:v>
+        <x:v>327</x:v>
       </x:c>
       <x:c r="B82" s="0" t="s">
-        <x:v>405</x:v>
+        <x:v>328</x:v>
       </x:c>
       <x:c r="C82" s="0" t="n">
-        <x:v>2996</x:v>
+        <x:v>6610</x:v>
       </x:c>
       <x:c r="D82" s="0" t="n">
-        <x:v>2866</x:v>
+        <x:v>5859</x:v>
       </x:c>
       <x:c r="E82" s="0" t="n">
-        <x:v>1872</x:v>
-      </x:c>
-      <x:c r="F82" s="0" t="s">
-        <x:v>406</x:v>
+        <x:v>55.67</x:v>
+      </x:c>
+      <x:c r="F82" s="0" t="n">
+        <x:v>3130408</x:v>
       </x:c>
       <x:c r="G82" s="0" t="s">
-        <x:v>407</x:v>
+        <x:v>329</x:v>
       </x:c>
       <x:c r="H82" s="0" t="s">
-        <x:v>408</x:v>
+        <x:v>330</x:v>
       </x:c>
       <x:c r="I82" s="0" t="n">
         <x:v>1</x:v>
@@ -4247,28 +3971,28 @@
     </x:row>
     <x:row r="83" spans="1:9">
       <x:c r="A83" s="0" t="s">
-        <x:v>409</x:v>
+        <x:v>331</x:v>
       </x:c>
       <x:c r="B83" s="0" t="s">
-        <x:v>410</x:v>
+        <x:v>332</x:v>
       </x:c>
       <x:c r="C83" s="0" t="n">
-        <x:v>6610</x:v>
+        <x:v>12444</x:v>
       </x:c>
       <x:c r="D83" s="0" t="n">
-        <x:v>5859</x:v>
+        <x:v>11488</x:v>
       </x:c>
       <x:c r="E83" s="0" t="n">
-        <x:v>5567</x:v>
-      </x:c>
-      <x:c r="F83" s="0" t="s">
-        <x:v>411</x:v>
+        <x:v>30.53</x:v>
+      </x:c>
+      <x:c r="F83" s="0" t="n">
+        <x:v>3130507</x:v>
       </x:c>
       <x:c r="G83" s="0" t="s">
-        <x:v>412</x:v>
+        <x:v>333</x:v>
       </x:c>
       <x:c r="H83" s="0" t="s">
-        <x:v>413</x:v>
+        <x:v>334</x:v>
       </x:c>
       <x:c r="I83" s="0" t="n">
         <x:v>1</x:v>
@@ -4276,28 +4000,28 @@
     </x:row>
     <x:row r="84" spans="1:9">
       <x:c r="A84" s="0" t="s">
-        <x:v>414</x:v>
+        <x:v>335</x:v>
       </x:c>
       <x:c r="B84" s="0" t="s">
-        <x:v>415</x:v>
+        <x:v>336</x:v>
       </x:c>
       <x:c r="C84" s="0" t="n">
-        <x:v>12444</x:v>
+        <x:v>7358</x:v>
       </x:c>
       <x:c r="D84" s="0" t="n">
-        <x:v>11488</x:v>
+        <x:v>6908</x:v>
       </x:c>
       <x:c r="E84" s="0" t="n">
-        <x:v>3053</x:v>
-      </x:c>
-      <x:c r="F84" s="0" t="s">
-        <x:v>416</x:v>
+        <x:v>46.17</x:v>
+      </x:c>
+      <x:c r="F84" s="0" t="n">
+        <x:v>3130606</x:v>
       </x:c>
       <x:c r="G84" s="0" t="s">
-        <x:v>417</x:v>
+        <x:v>337</x:v>
       </x:c>
       <x:c r="H84" s="0" t="s">
-        <x:v>418</x:v>
+        <x:v>338</x:v>
       </x:c>
       <x:c r="I84" s="0" t="n">
         <x:v>1</x:v>
@@ -4305,28 +4029,28 @@
     </x:row>
     <x:row r="85" spans="1:9">
       <x:c r="A85" s="0" t="s">
-        <x:v>419</x:v>
+        <x:v>339</x:v>
       </x:c>
       <x:c r="B85" s="0" t="s">
-        <x:v>420</x:v>
+        <x:v>340</x:v>
       </x:c>
       <x:c r="C85" s="0" t="n">
-        <x:v>7358</x:v>
+        <x:v>2776</x:v>
       </x:c>
       <x:c r="D85" s="0" t="n">
-        <x:v>6908</x:v>
+        <x:v>2629</x:v>
       </x:c>
       <x:c r="E85" s="0" t="n">
-        <x:v>4617</x:v>
-      </x:c>
-      <x:c r="F85" s="0" t="s">
-        <x:v>421</x:v>
+        <x:v>8.6</x:v>
+      </x:c>
+      <x:c r="F85" s="0" t="n">
+        <x:v>3130804</x:v>
       </x:c>
       <x:c r="G85" s="0" t="s">
-        <x:v>422</x:v>
+        <x:v>341</x:v>
       </x:c>
       <x:c r="H85" s="0" t="s">
-        <x:v>423</x:v>
+        <x:v>342</x:v>
       </x:c>
       <x:c r="I85" s="0" t="n">
         <x:v>1</x:v>
@@ -4334,28 +4058,28 @@
     </x:row>
     <x:row r="86" spans="1:9">
       <x:c r="A86" s="0" t="s">
-        <x:v>424</x:v>
+        <x:v>343</x:v>
       </x:c>
       <x:c r="B86" s="0" t="s">
-        <x:v>425</x:v>
+        <x:v>344</x:v>
       </x:c>
       <x:c r="C86" s="0" t="n">
-        <x:v>2776</x:v>
+        <x:v>10118</x:v>
       </x:c>
       <x:c r="D86" s="0" t="n">
-        <x:v>2629</x:v>
+        <x:v>9521</x:v>
       </x:c>
       <x:c r="E86" s="0" t="n">
-        <x:v>860</x:v>
-      </x:c>
-      <x:c r="F86" s="0" t="s">
-        <x:v>426</x:v>
+        <x:v>31.93</x:v>
+      </x:c>
+      <x:c r="F86" s="0" t="n">
+        <x:v>3131505</x:v>
       </x:c>
       <x:c r="G86" s="0" t="s">
-        <x:v>427</x:v>
+        <x:v>345</x:v>
       </x:c>
       <x:c r="H86" s="0" t="s">
-        <x:v>428</x:v>
+        <x:v>346</x:v>
       </x:c>
       <x:c r="I86" s="0" t="n">
         <x:v>1</x:v>
@@ -4363,173 +4087,173 @@
     </x:row>
     <x:row r="87" spans="1:9">
       <x:c r="A87" s="0" t="s">
-        <x:v>429</x:v>
+        <x:v>347</x:v>
       </x:c>
       <x:c r="B87" s="0" t="s">
-        <x:v>430</x:v>
+        <x:v>348</x:v>
       </x:c>
       <x:c r="C87" s="0" t="n">
-        <x:v>10118</x:v>
+        <x:v>97334</x:v>
       </x:c>
       <x:c r="D87" s="0" t="n">
-        <x:v>9521</x:v>
+        <x:v>90658</x:v>
       </x:c>
       <x:c r="E87" s="0" t="n">
-        <x:v>3193</x:v>
-      </x:c>
-      <x:c r="F87" s="0" t="s">
-        <x:v>431</x:v>
+        <x:v>307.49</x:v>
+      </x:c>
+      <x:c r="F87" s="0" t="n">
+        <x:v>3132404</x:v>
       </x:c>
       <x:c r="G87" s="0" t="s">
-        <x:v>432</x:v>
+        <x:v>349</x:v>
       </x:c>
       <x:c r="H87" s="0" t="s">
-        <x:v>433</x:v>
+        <x:v>350</x:v>
       </x:c>
       <x:c r="I87" s="0" t="n">
-        <x:v>1</x:v>
+        <x:v>3</x:v>
       </x:c>
     </x:row>
     <x:row r="88" spans="1:9">
       <x:c r="A88" s="0" t="s">
-        <x:v>434</x:v>
+        <x:v>351</x:v>
       </x:c>
       <x:c r="B88" s="0" t="s">
-        <x:v>435</x:v>
+        <x:v>352</x:v>
       </x:c>
       <x:c r="C88" s="0" t="n">
-        <x:v>97334</x:v>
+        <x:v>10157</x:v>
       </x:c>
       <x:c r="D88" s="0" t="n">
-        <x:v>90658</x:v>
+        <x:v>10349</x:v>
       </x:c>
       <x:c r="E88" s="0" t="n">
-        <x:v>30749</x:v>
-      </x:c>
-      <x:c r="F88" s="0" t="s">
-        <x:v>436</x:v>
+        <x:v>42.47</x:v>
+      </x:c>
+      <x:c r="F88" s="0" t="n">
+        <x:v>3132909</x:v>
       </x:c>
       <x:c r="G88" s="0" t="s">
-        <x:v>437</x:v>
+        <x:v>353</x:v>
       </x:c>
       <x:c r="H88" s="0" t="s">
-        <x:v>438</x:v>
+        <x:v>354</x:v>
       </x:c>
       <x:c r="I88" s="0" t="n">
-        <x:v>3</x:v>
+        <x:v>1</x:v>
       </x:c>
     </x:row>
     <x:row r="89" spans="1:9">
       <x:c r="A89" s="0" t="s">
-        <x:v>434</x:v>
+        <x:v>355</x:v>
       </x:c>
       <x:c r="B89" s="0" t="s">
-        <x:v>435</x:v>
+        <x:v>356</x:v>
       </x:c>
       <x:c r="C89" s="0" t="n">
-        <x:v>97334</x:v>
+        <x:v>15714</x:v>
       </x:c>
       <x:c r="D89" s="0" t="n">
-        <x:v>90658</x:v>
+        <x:v>14003</x:v>
       </x:c>
       <x:c r="E89" s="0" t="n">
-        <x:v>30749</x:v>
-      </x:c>
-      <x:c r="F89" s="0" t="s">
-        <x:v>436</x:v>
+        <x:v>32.43</x:v>
+      </x:c>
+      <x:c r="F89" s="0" t="n">
+        <x:v>3133006</x:v>
       </x:c>
       <x:c r="G89" s="0" t="s">
-        <x:v>437</x:v>
+        <x:v>357</x:v>
       </x:c>
       <x:c r="H89" s="0" t="s">
-        <x:v>438</x:v>
+        <x:v>358</x:v>
       </x:c>
       <x:c r="I89" s="0" t="n">
-        <x:v>3</x:v>
+        <x:v>2</x:v>
       </x:c>
     </x:row>
     <x:row r="90" spans="1:9">
       <x:c r="A90" s="0" t="s">
-        <x:v>439</x:v>
+        <x:v>359</x:v>
       </x:c>
       <x:c r="B90" s="0" t="s">
-        <x:v>440</x:v>
+        <x:v>360</x:v>
       </x:c>
       <x:c r="C90" s="0" t="n">
-        <x:v>10157</x:v>
+        <x:v>15423</x:v>
       </x:c>
       <x:c r="D90" s="0" t="n">
-        <x:v>10349</x:v>
+        <x:v>14175</x:v>
       </x:c>
       <x:c r="E90" s="0" t="n">
-        <x:v>4247</x:v>
-      </x:c>
-      <x:c r="F90" s="0" t="s">
-        <x:v>441</x:v>
+        <x:v>98.87</x:v>
+      </x:c>
+      <x:c r="F90" s="0" t="n">
+        <x:v>3133105</x:v>
       </x:c>
       <x:c r="G90" s="0" t="s">
-        <x:v>442</x:v>
+        <x:v>361</x:v>
       </x:c>
       <x:c r="H90" s="0" t="s">
-        <x:v>443</x:v>
+        <x:v>362</x:v>
       </x:c>
       <x:c r="I90" s="0" t="n">
-        <x:v>1</x:v>
+        <x:v>2</x:v>
       </x:c>
     </x:row>
     <x:row r="91" spans="1:9">
       <x:c r="A91" s="0" t="s">
-        <x:v>444</x:v>
+        <x:v>363</x:v>
       </x:c>
       <x:c r="B91" s="0" t="s">
-        <x:v>445</x:v>
+        <x:v>364</x:v>
       </x:c>
       <x:c r="C91" s="0" t="n">
-        <x:v>15714</x:v>
+        <x:v>9881</x:v>
       </x:c>
       <x:c r="D91" s="0" t="n">
-        <x:v>14003</x:v>
+        <x:v>8664</x:v>
       </x:c>
       <x:c r="E91" s="0" t="n">
-        <x:v>3243</x:v>
-      </x:c>
-      <x:c r="F91" s="0" t="s">
-        <x:v>446</x:v>
+        <x:v>48.85</x:v>
+      </x:c>
+      <x:c r="F91" s="0" t="n">
+        <x:v>3133600</x:v>
       </x:c>
       <x:c r="G91" s="0" t="s">
-        <x:v>447</x:v>
+        <x:v>365</x:v>
       </x:c>
       <x:c r="H91" s="0" t="s">
-        <x:v>448</x:v>
+        <x:v>366</x:v>
       </x:c>
       <x:c r="I91" s="0" t="n">
-        <x:v>2</x:v>
+        <x:v>1</x:v>
       </x:c>
     </x:row>
     <x:row r="92" spans="1:9">
       <x:c r="A92" s="0" t="s">
-        <x:v>449</x:v>
+        <x:v>367</x:v>
       </x:c>
       <x:c r="B92" s="0" t="s">
-        <x:v>450</x:v>
+        <x:v>368</x:v>
       </x:c>
       <x:c r="C92" s="0" t="n">
-        <x:v>15423</x:v>
+        <x:v>16199</x:v>
       </x:c>
       <x:c r="D92" s="0" t="n">
-        <x:v>14175</x:v>
+        <x:v>14945</x:v>
       </x:c>
       <x:c r="E92" s="0" t="n">
-        <x:v>9887</x:v>
-      </x:c>
-      <x:c r="F92" s="0" t="s">
-        <x:v>451</x:v>
+        <x:v>97.41</x:v>
+      </x:c>
+      <x:c r="F92" s="0" t="n">
+        <x:v>3133758</x:v>
       </x:c>
       <x:c r="G92" s="0" t="s">
-        <x:v>452</x:v>
+        <x:v>369</x:v>
       </x:c>
       <x:c r="H92" s="0" t="s">
-        <x:v>453</x:v>
+        <x:v>370</x:v>
       </x:c>
       <x:c r="I92" s="0" t="n">
         <x:v>2</x:v>
@@ -4537,28 +4261,28 @@
     </x:row>
     <x:row r="93" spans="1:9">
       <x:c r="A93" s="0" t="s">
-        <x:v>454</x:v>
+        <x:v>371</x:v>
       </x:c>
       <x:c r="B93" s="0" t="s">
-        <x:v>455</x:v>
+        <x:v>372</x:v>
       </x:c>
       <x:c r="C93" s="0" t="n">
-        <x:v>9881</x:v>
+        <x:v>6000</x:v>
       </x:c>
       <x:c r="D93" s="0" t="n">
-        <x:v>8664</x:v>
+        <x:v>6139</x:v>
       </x:c>
       <x:c r="E93" s="0" t="n">
-        <x:v>4885</x:v>
-      </x:c>
-      <x:c r="F93" s="0" t="s">
-        <x:v>456</x:v>
+        <x:v>26.15</x:v>
+      </x:c>
+      <x:c r="F93" s="0" t="n">
+        <x:v>3134301</x:v>
       </x:c>
       <x:c r="G93" s="0" t="s">
-        <x:v>457</x:v>
+        <x:v>373</x:v>
       </x:c>
       <x:c r="H93" s="0" t="s">
-        <x:v>458</x:v>
+        <x:v>374</x:v>
       </x:c>
       <x:c r="I93" s="0" t="n">
         <x:v>1</x:v>
@@ -4566,28 +4290,28 @@
     </x:row>
     <x:row r="94" spans="1:9">
       <x:c r="A94" s="0" t="s">
-        <x:v>459</x:v>
+        <x:v>375</x:v>
       </x:c>
       <x:c r="B94" s="0" t="s">
-        <x:v>460</x:v>
+        <x:v>376</x:v>
       </x:c>
       <x:c r="C94" s="0" t="n">
-        <x:v>16199</x:v>
+        <x:v>26264</x:v>
       </x:c>
       <x:c r="D94" s="0" t="n">
-        <x:v>14945</x:v>
+        <x:v>22772</x:v>
       </x:c>
       <x:c r="E94" s="0" t="n">
-        <x:v>9741</x:v>
-      </x:c>
-      <x:c r="F94" s="0" t="s">
-        <x:v>461</x:v>
+        <x:v>65.48</x:v>
+      </x:c>
+      <x:c r="F94" s="0" t="n">
+        <x:v>3134905</x:v>
       </x:c>
       <x:c r="G94" s="0" t="s">
-        <x:v>462</x:v>
+        <x:v>377</x:v>
       </x:c>
       <x:c r="H94" s="0" t="s">
-        <x:v>463</x:v>
+        <x:v>378</x:v>
       </x:c>
       <x:c r="I94" s="0" t="n">
         <x:v>2</x:v>
@@ -4595,28 +4319,28 @@
     </x:row>
     <x:row r="95" spans="1:9">
       <x:c r="A95" s="0" t="s">
-        <x:v>464</x:v>
+        <x:v>379</x:v>
       </x:c>
       <x:c r="B95" s="0" t="s">
-        <x:v>465</x:v>
+        <x:v>380</x:v>
       </x:c>
       <x:c r="C95" s="0" t="n">
-        <x:v>6000</x:v>
+        <x:v>7691</x:v>
       </x:c>
       <x:c r="D95" s="0" t="n">
-        <x:v>6139</x:v>
+        <x:v>7502</x:v>
       </x:c>
       <x:c r="E95" s="0" t="n">
-        <x:v>2615</x:v>
-      </x:c>
-      <x:c r="F95" s="0" t="s">
-        <x:v>466</x:v>
+        <x:v>18.33</x:v>
+      </x:c>
+      <x:c r="F95" s="0" t="n">
+        <x:v>3134806</x:v>
       </x:c>
       <x:c r="G95" s="0" t="s">
-        <x:v>467</x:v>
+        <x:v>381</x:v>
       </x:c>
       <x:c r="H95" s="0" t="s">
-        <x:v>468</x:v>
+        <x:v>382</x:v>
       </x:c>
       <x:c r="I95" s="0" t="n">
         <x:v>1</x:v>
@@ -4624,57 +4348,57 @@
     </x:row>
     <x:row r="96" spans="1:9">
       <x:c r="A96" s="0" t="s">
-        <x:v>469</x:v>
+        <x:v>383</x:v>
       </x:c>
       <x:c r="B96" s="0" t="s">
-        <x:v>470</x:v>
+        <x:v>384</x:v>
       </x:c>
       <x:c r="C96" s="0" t="n">
-        <x:v>26264</x:v>
+        <x:v>4780</x:v>
       </x:c>
       <x:c r="D96" s="0" t="n">
-        <x:v>22772</x:v>
+        <x:v>4768</x:v>
       </x:c>
       <x:c r="E96" s="0" t="n">
-        <x:v>6548</x:v>
-      </x:c>
-      <x:c r="F96" s="0" t="s">
-        <x:v>471</x:v>
+        <x:v>30.99</x:v>
+      </x:c>
+      <x:c r="F96" s="0" t="n">
+        <x:v>3135902</x:v>
       </x:c>
       <x:c r="G96" s="0" t="s">
-        <x:v>472</x:v>
+        <x:v>385</x:v>
       </x:c>
       <x:c r="H96" s="0" t="s">
-        <x:v>473</x:v>
+        <x:v>386</x:v>
       </x:c>
       <x:c r="I96" s="0" t="n">
-        <x:v>2</x:v>
+        <x:v>1</x:v>
       </x:c>
     </x:row>
     <x:row r="97" spans="1:9">
       <x:c r="A97" s="0" t="s">
-        <x:v>474</x:v>
+        <x:v>387</x:v>
       </x:c>
       <x:c r="B97" s="0" t="s">
-        <x:v>475</x:v>
+        <x:v>388</x:v>
       </x:c>
       <x:c r="C97" s="0" t="n">
-        <x:v>7691</x:v>
+        <x:v>10681</x:v>
       </x:c>
       <x:c r="D97" s="0" t="n">
-        <x:v>7502</x:v>
+        <x:v>9238</x:v>
       </x:c>
       <x:c r="E97" s="0" t="n">
-        <x:v>1833</x:v>
-      </x:c>
-      <x:c r="F97" s="0" t="s">
-        <x:v>476</x:v>
+        <x:v>41.92</x:v>
+      </x:c>
+      <x:c r="F97" s="0" t="n">
+        <x:v>3136900</x:v>
       </x:c>
       <x:c r="G97" s="0" t="s">
-        <x:v>477</x:v>
+        <x:v>389</x:v>
       </x:c>
       <x:c r="H97" s="0" t="s">
-        <x:v>478</x:v>
+        <x:v>390</x:v>
       </x:c>
       <x:c r="I97" s="0" t="n">
         <x:v>1</x:v>
@@ -4682,118 +4406,118 @@
     </x:row>
     <x:row r="98" spans="1:9">
       <x:c r="A98" s="0" t="s">
-        <x:v>479</x:v>
+        <x:v>391</x:v>
       </x:c>
       <x:c r="B98" s="0" t="s">
-        <x:v>480</x:v>
+        <x:v>392</x:v>
       </x:c>
       <x:c r="C98" s="0" t="n">
-        <x:v>4780</x:v>
+        <x:v>20907</x:v>
       </x:c>
       <x:c r="D98" s="0" t="n">
-        <x:v>4768</x:v>
+        <x:v>19554</x:v>
       </x:c>
       <x:c r="E98" s="0" t="n">
-        <x:v>3099</x:v>
-      </x:c>
-      <x:c r="F98" s="0" t="s">
-        <x:v>481</x:v>
+        <x:v>91.76</x:v>
+      </x:c>
+      <x:c r="F98" s="0" t="n">
+        <x:v>3137809</x:v>
       </x:c>
       <x:c r="G98" s="0" t="s">
-        <x:v>482</x:v>
+        <x:v>393</x:v>
       </x:c>
       <x:c r="H98" s="0" t="s">
-        <x:v>483</x:v>
+        <x:v>394</x:v>
       </x:c>
       <x:c r="I98" s="0" t="n">
-        <x:v>1</x:v>
+        <x:v>2</x:v>
       </x:c>
     </x:row>
     <x:row r="99" spans="1:9">
       <x:c r="A99" s="0" t="s">
-        <x:v>484</x:v>
+        <x:v>395</x:v>
       </x:c>
       <x:c r="B99" s="0" t="s">
-        <x:v>485</x:v>
+        <x:v>396</x:v>
       </x:c>
       <x:c r="C99" s="0" t="n">
-        <x:v>10681</x:v>
+        <x:v>104783</x:v>
       </x:c>
       <x:c r="D99" s="0" t="n">
-        <x:v>9238</x:v>
+        <x:v>92200</x:v>
       </x:c>
       <x:c r="E99" s="0" t="n">
-        <x:v>4192</x:v>
-      </x:c>
-      <x:c r="F99" s="0" t="s">
-        <x:v>486</x:v>
+        <x:v>163.26</x:v>
+      </x:c>
+      <x:c r="F99" s="0" t="n">
+        <x:v>3138203</x:v>
       </x:c>
       <x:c r="G99" s="0" t="s">
-        <x:v>487</x:v>
+        <x:v>397</x:v>
       </x:c>
       <x:c r="H99" s="0" t="s">
-        <x:v>488</x:v>
+        <x:v>398</x:v>
       </x:c>
       <x:c r="I99" s="0" t="n">
-        <x:v>1</x:v>
+        <x:v>3</x:v>
       </x:c>
     </x:row>
     <x:row r="100" spans="1:9">
       <x:c r="A100" s="0" t="s">
-        <x:v>489</x:v>
+        <x:v>399</x:v>
       </x:c>
       <x:c r="B100" s="0" t="s">
-        <x:v>490</x:v>
+        <x:v>400</x:v>
       </x:c>
       <x:c r="C100" s="0" t="n">
-        <x:v>20907</x:v>
+        <x:v>104783</x:v>
       </x:c>
       <x:c r="D100" s="0" t="n">
-        <x:v>19554</x:v>
+        <x:v>5346</x:v>
       </x:c>
       <x:c r="E100" s="0" t="n">
-        <x:v>9176</x:v>
-      </x:c>
-      <x:c r="F100" s="0" t="s">
-        <x:v>491</x:v>
+        <x:v>13.32</x:v>
+      </x:c>
+      <x:c r="F100" s="0" t="n">
+        <x:v>3138500</x:v>
       </x:c>
       <x:c r="G100" s="0" t="s">
-        <x:v>492</x:v>
+        <x:v>401</x:v>
       </x:c>
       <x:c r="H100" s="0" t="s">
-        <x:v>493</x:v>
+        <x:v>402</x:v>
       </x:c>
       <x:c r="I100" s="0" t="n">
-        <x:v>2</x:v>
+        <x:v>3</x:v>
       </x:c>
     </x:row>
     <x:row r="101" spans="1:9">
       <x:c r="A101" s="0" t="s">
-        <x:v>494</x:v>
+        <x:v>403</x:v>
       </x:c>
       <x:c r="B101" s="0" t="s">
-        <x:v>495</x:v>
+        <x:v>404</x:v>
       </x:c>
       <x:c r="C101" s="0" t="n">
-        <x:v>104783</x:v>
+        <x:v>5031</x:v>
       </x:c>
       <x:c r="D101" s="0" t="n">
-        <x:v>92200</x:v>
+        <x:v>5422</x:v>
       </x:c>
       <x:c r="E101" s="0" t="n">
-        <x:v>16326</x:v>
-      </x:c>
-      <x:c r="F101" s="0" t="s">
-        <x:v>496</x:v>
+        <x:v>10.84</x:v>
+      </x:c>
+      <x:c r="F101" s="0" t="n">
+        <x:v>3138708</x:v>
       </x:c>
       <x:c r="G101" s="0" t="s">
-        <x:v>497</x:v>
+        <x:v>405</x:v>
       </x:c>
       <x:c r="H101" s="0" t="s">
-        <x:v>498</x:v>
+        <x:v>406</x:v>
       </x:c>
       <x:c r="I101" s="0" t="n">
-        <x:v>3</x:v>
+        <x:v>1</x:v>
       </x:c>
     </x:row>
   </x:sheetData>

--- a/Cidades.xlsx
+++ b/Cidades.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="407" uniqueCount="407">
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="405" uniqueCount="405">
   <x:si>
     <x:t>NOME</x:t>
   </x:si>
@@ -97,6 +97,12 @@
     <x:t>37130-001</x:t>
   </x:si>
   <x:si>
+    <x:t>alfenense</x:t>
+  </x:si>
+  <x:si>
+    <x:t>LUIZ ANTONIO DA SILVA</x:t>
+  </x:si>
+  <x:si>
     <x:t>Alpinópolis</x:t>
   </x:si>
   <x:si>
@@ -211,12 +217,6 @@
     <x:t>37170-000</x:t>
   </x:si>
   <x:si>
-    <x:t>esperancense</x:t>
-  </x:si>
-  <x:si>
-    <x:t>HIDERALDO HENRIQUE SILVA</x:t>
-  </x:si>
-  <x:si>
     <x:t>Bocaina de Minas</x:t>
   </x:si>
   <x:si>
@@ -1219,22 +1219,16 @@
     <x:t>37350-000</x:t>
   </x:si>
   <x:si>
+    <x:t>Luminárias</x:t>
+  </x:si>
+  <x:si>
+    <x:t>37240-000</x:t>
+  </x:si>
+  <x:si>
     <x:t>libertense</x:t>
   </x:si>
   <x:si>
     <x:t>WALTER DE ASSIS TOLEDO JUNIOR</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Luminárias</x:t>
-  </x:si>
-  <x:si>
-    <x:t>37240-000</x:t>
-  </x:si>
-  <x:si>
-    <x:t>luminarense</x:t>
-  </x:si>
-  <x:si>
-    <x:t>ECIO CARVALHO REZENDE</x:t>
   </x:si>
 </x:sst>
 </file>
@@ -1744,33 +1738,33 @@
         <x:v>26</x:v>
       </x:c>
       <x:c r="C6" s="0" t="n">
-        <x:v>3011</x:v>
+        <x:v>80494</x:v>
       </x:c>
       <x:c r="D6" s="0" t="n">
-        <x:v>2913</x:v>
+        <x:v>73774</x:v>
       </x:c>
       <x:c r="E6" s="0" t="n">
-        <x:v>50.22</x:v>
+        <x:v>86.75</x:v>
       </x:c>
       <x:c r="F6" s="0" t="n">
-        <x:v>3101409</x:v>
+        <x:v>3101607</x:v>
       </x:c>
       <x:c r="G6" s="0" t="s">
-        <x:v>23</x:v>
+        <x:v>27</x:v>
       </x:c>
       <x:c r="H6" s="0" t="s">
-        <x:v>24</x:v>
+        <x:v>28</x:v>
       </x:c>
       <x:c r="I6" s="0" t="n">
-        <x:v>1</x:v>
+        <x:v>3</x:v>
       </x:c>
     </x:row>
     <x:row r="7" spans="1:9">
       <x:c r="A7" s="0" t="s">
-        <x:v>27</x:v>
+        <x:v>29</x:v>
       </x:c>
       <x:c r="B7" s="0" t="s">
-        <x:v>28</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="C7" s="0" t="n">
         <x:v>19958</x:v>
@@ -1785,10 +1779,10 @@
         <x:v>3101904</x:v>
       </x:c>
       <x:c r="G7" s="0" t="s">
-        <x:v>29</x:v>
+        <x:v>31</x:v>
       </x:c>
       <x:c r="H7" s="0" t="s">
-        <x:v>30</x:v>
+        <x:v>32</x:v>
       </x:c>
       <x:c r="I7" s="0" t="n">
         <x:v>2</x:v>
@@ -1796,10 +1790,10 @@
     </x:row>
     <x:row r="8" spans="1:9">
       <x:c r="A8" s="0" t="s">
-        <x:v>31</x:v>
+        <x:v>33</x:v>
       </x:c>
       <x:c r="B8" s="0" t="s">
-        <x:v>32</x:v>
+        <x:v>34</x:v>
       </x:c>
       <x:c r="C8" s="0" t="n">
         <x:v>14517</x:v>
@@ -1814,10 +1808,10 @@
         <x:v>3102001</x:v>
       </x:c>
       <x:c r="G8" s="0" t="s">
-        <x:v>33</x:v>
+        <x:v>35</x:v>
       </x:c>
       <x:c r="H8" s="0" t="s">
-        <x:v>34</x:v>
+        <x:v>36</x:v>
       </x:c>
       <x:c r="I8" s="0" t="n">
         <x:v>1</x:v>
@@ -1825,10 +1819,10 @@
     </x:row>
     <x:row r="9" spans="1:9">
       <x:c r="A9" s="0" t="s">
-        <x:v>35</x:v>
+        <x:v>37</x:v>
       </x:c>
       <x:c r="B9" s="0" t="s">
-        <x:v>36</x:v>
+        <x:v>38</x:v>
       </x:c>
       <x:c r="C9" s="0" t="n">
         <x:v>41396</x:v>
@@ -1843,10 +1837,10 @@
         <x:v>3102605</x:v>
       </x:c>
       <x:c r="G9" s="0" t="s">
-        <x:v>37</x:v>
+        <x:v>39</x:v>
       </x:c>
       <x:c r="H9" s="0" t="s">
-        <x:v>38</x:v>
+        <x:v>40</x:v>
       </x:c>
       <x:c r="I9" s="0" t="n">
         <x:v>3</x:v>
@@ -1854,10 +1848,10 @@
     </x:row>
     <x:row r="10" spans="1:9">
       <x:c r="A10" s="0" t="s">
-        <x:v>39</x:v>
+        <x:v>41</x:v>
       </x:c>
       <x:c r="B10" s="0" t="s">
-        <x:v>40</x:v>
+        <x:v>42</x:v>
       </x:c>
       <x:c r="C10" s="0" t="n">
         <x:v>12206</x:v>
@@ -1872,10 +1866,10 @@
         <x:v>3102803</x:v>
       </x:c>
       <x:c r="G10" s="0" t="s">
-        <x:v>41</x:v>
+        <x:v>43</x:v>
       </x:c>
       <x:c r="H10" s="0" t="s">
-        <x:v>42</x:v>
+        <x:v>44</x:v>
       </x:c>
       <x:c r="I10" s="0" t="n">
         <x:v>1</x:v>
@@ -1883,13 +1877,13 @@
     </x:row>
     <x:row r="11" spans="1:9">
       <x:c r="A11" s="0" t="s">
-        <x:v>43</x:v>
+        <x:v>45</x:v>
       </x:c>
       <x:c r="B11" s="0" t="s">
-        <x:v>44</x:v>
+        <x:v>46</x:v>
       </x:c>
       <x:c r="C11" s="0" t="n">
-        <x:v>12206</x:v>
+        <x:v>2787</x:v>
       </x:c>
       <x:c r="D11" s="0" t="n">
         <x:v>2823</x:v>
@@ -1901,10 +1895,10 @@
         <x:v>3103603</x:v>
       </x:c>
       <x:c r="G11" s="0" t="s">
-        <x:v>45</x:v>
+        <x:v>47</x:v>
       </x:c>
       <x:c r="H11" s="0" t="s">
-        <x:v>46</x:v>
+        <x:v>48</x:v>
       </x:c>
       <x:c r="I11" s="0" t="n">
         <x:v>1</x:v>
@@ -1912,10 +1906,10 @@
     </x:row>
     <x:row r="12" spans="1:9">
       <x:c r="A12" s="0" t="s">
-        <x:v>47</x:v>
+        <x:v>49</x:v>
       </x:c>
       <x:c r="B12" s="0" t="s">
-        <x:v>48</x:v>
+        <x:v>50</x:v>
       </x:c>
       <x:c r="C12" s="0" t="n">
         <x:v>10883</x:v>
@@ -1930,10 +1924,10 @@
         <x:v>3104106</x:v>
       </x:c>
       <x:c r="G12" s="0" t="s">
-        <x:v>49</x:v>
+        <x:v>51</x:v>
       </x:c>
       <x:c r="H12" s="0" t="s">
-        <x:v>50</x:v>
+        <x:v>52</x:v>
       </x:c>
       <x:c r="I12" s="0" t="n">
         <x:v>1</x:v>
@@ -1941,10 +1935,10 @@
     </x:row>
     <x:row r="13" spans="1:9">
       <x:c r="A13" s="0" t="s">
-        <x:v>51</x:v>
+        <x:v>53</x:v>
       </x:c>
       <x:c r="B13" s="0" t="s">
-        <x:v>52</x:v>
+        <x:v>54</x:v>
       </x:c>
       <x:c r="C13" s="0" t="n">
         <x:v>15181</x:v>
@@ -1959,10 +1953,10 @@
         <x:v>3104304</x:v>
       </x:c>
       <x:c r="G13" s="0" t="s">
-        <x:v>53</x:v>
+        <x:v>55</x:v>
       </x:c>
       <x:c r="H13" s="0" t="s">
-        <x:v>54</x:v>
+        <x:v>56</x:v>
       </x:c>
       <x:c r="I13" s="0" t="n">
         <x:v>2</x:v>
@@ -1970,10 +1964,10 @@
     </x:row>
     <x:row r="14" spans="1:9">
       <x:c r="A14" s="0" t="s">
-        <x:v>55</x:v>
+        <x:v>57</x:v>
       </x:c>
       <x:c r="B14" s="0" t="s">
-        <x:v>56</x:v>
+        <x:v>58</x:v>
       </x:c>
       <x:c r="C14" s="0" t="n">
         <x:v>19199</x:v>
@@ -1988,10 +1982,10 @@
         <x:v>3104908</x:v>
       </x:c>
       <x:c r="G14" s="0" t="s">
-        <x:v>57</x:v>
+        <x:v>59</x:v>
       </x:c>
       <x:c r="H14" s="0" t="s">
-        <x:v>58</x:v>
+        <x:v>60</x:v>
       </x:c>
       <x:c r="I14" s="0" t="n">
         <x:v>2</x:v>
@@ -1999,10 +1993,10 @@
     </x:row>
     <x:row r="15" spans="1:9">
       <x:c r="A15" s="0" t="s">
-        <x:v>59</x:v>
+        <x:v>61</x:v>
       </x:c>
       <x:c r="B15" s="0" t="s">
-        <x:v>60</x:v>
+        <x:v>62</x:v>
       </x:c>
       <x:c r="C15" s="0" t="n">
         <x:v>5778</x:v>
@@ -2017,10 +2011,10 @@
         <x:v>3105301</x:v>
       </x:c>
       <x:c r="G15" s="0" t="s">
-        <x:v>61</x:v>
+        <x:v>63</x:v>
       </x:c>
       <x:c r="H15" s="0" t="s">
-        <x:v>62</x:v>
+        <x:v>64</x:v>
       </x:c>
       <x:c r="I15" s="0" t="n">
         <x:v>1</x:v>
@@ -2028,31 +2022,31 @@
     </x:row>
     <x:row r="16" spans="1:9">
       <x:c r="A16" s="0" t="s">
+        <x:v>65</x:v>
+      </x:c>
+      <x:c r="B16" s="0" t="s">
+        <x:v>66</x:v>
+      </x:c>
+      <x:c r="C16" s="0" t="n">
+        <x:v>5778</x:v>
+      </x:c>
+      <x:c r="D16" s="0" t="n">
+        <x:v>5338</x:v>
+      </x:c>
+      <x:c r="E16" s="0" t="n">
+        <x:v>113.41</x:v>
+      </x:c>
+      <x:c r="F16" s="0" t="n">
+        <x:v>3105301</x:v>
+      </x:c>
+      <x:c r="G16" s="0" t="s">
         <x:v>63</x:v>
       </x:c>
-      <x:c r="B16" s="0" t="s">
+      <x:c r="H16" s="0" t="s">
         <x:v>64</x:v>
       </x:c>
-      <x:c r="C16" s="0" t="n">
-        <x:v>40219</x:v>
-      </x:c>
-      <x:c r="D16" s="0" t="n">
-        <x:v>38516</x:v>
-      </x:c>
-      <x:c r="E16" s="0" t="n">
-        <x:v>44.75</x:v>
-      </x:c>
-      <x:c r="F16" s="0" t="n">
-        <x:v>3107109</x:v>
-      </x:c>
-      <x:c r="G16" s="0" t="s">
-        <x:v>65</x:v>
-      </x:c>
-      <x:c r="H16" s="0" t="s">
-        <x:v>66</x:v>
-      </x:c>
       <x:c r="I16" s="0" t="n">
-        <x:v>3</x:v>
+        <x:v>1</x:v>
       </x:c>
     </x:row>
     <x:row r="17" spans="1:9">
@@ -2237,16 +2231,16 @@
         <x:v>92</x:v>
       </x:c>
       <x:c r="C23" s="0" t="n">
-        <x:v>14949</x:v>
+        <x:v>19614</x:v>
       </x:c>
       <x:c r="D23" s="0" t="n">
-        <x:v>14920</x:v>
+        <x:v>17118</x:v>
       </x:c>
       <x:c r="E23" s="0" t="n">
-        <x:v>44.66</x:v>
+        <x:v>56.85</x:v>
       </x:c>
       <x:c r="F23" s="0" t="n">
-        <x:v>3108404</x:v>
+        <x:v>3108305</x:v>
       </x:c>
       <x:c r="G23" s="0" t="s">
         <x:v>93</x:v>
@@ -2255,7 +2249,7 @@
         <x:v>94</x:v>
       </x:c>
       <x:c r="I23" s="0" t="n">
-        <x:v>1</x:v>
+        <x:v>2</x:v>
       </x:c>
     </x:row>
     <x:row r="24" spans="1:9">
@@ -3484,16 +3478,16 @@
         <x:v>264</x:v>
       </x:c>
       <x:c r="C66" s="0" t="n">
-        <x:v>2997</x:v>
+        <x:v>6025</x:v>
       </x:c>
       <x:c r="D66" s="0" t="n">
-        <x:v>2994</x:v>
+        <x:v>5763</x:v>
       </x:c>
       <x:c r="E66" s="0" t="n">
-        <x:v>26.28</x:v>
+        <x:v>26.56</x:v>
       </x:c>
       <x:c r="F66" s="0" t="n">
-        <x:v>3122801</x:v>
+        <x:v>3122405</x:v>
       </x:c>
       <x:c r="G66" s="0" t="s">
         <x:v>265</x:v>
@@ -3513,7 +3507,7 @@
         <x:v>268</x:v>
       </x:c>
       <x:c r="C67" s="0" t="n">
-        <x:v>2997</x:v>
+        <x:v>1533</x:v>
       </x:c>
       <x:c r="D67" s="0" t="n">
         <x:v>1440</x:v>
@@ -3687,16 +3681,16 @@
         <x:v>292</x:v>
       </x:c>
       <x:c r="C73" s="0" t="n">
-        <x:v>4437</x:v>
+        <x:v>2376</x:v>
       </x:c>
       <x:c r="D73" s="0" t="n">
-        <x:v>4098</x:v>
+        <x:v>2350</x:v>
       </x:c>
       <x:c r="E73" s="0" t="n">
-        <x:v>18.73</x:v>
+        <x:v>27.32</x:v>
       </x:c>
       <x:c r="F73" s="0" t="n">
-        <x:v>3126307</x:v>
+        <x:v>3125200</x:v>
       </x:c>
       <x:c r="G73" s="0" t="s">
         <x:v>293</x:v>
@@ -4267,10 +4261,10 @@
         <x:v>372</x:v>
       </x:c>
       <x:c r="C93" s="0" t="n">
-        <x:v>6000</x:v>
+        <x:v>16199</x:v>
       </x:c>
       <x:c r="D93" s="0" t="n">
-        <x:v>6139</x:v>
+        <x:v>14945</x:v>
       </x:c>
       <x:c r="E93" s="0" t="n">
         <x:v>26.15</x:v>
@@ -4285,7 +4279,7 @@
         <x:v>374</x:v>
       </x:c>
       <x:c r="I93" s="0" t="n">
-        <x:v>1</x:v>
+        <x:v>2</x:v>
       </x:c>
     </x:row>
     <x:row r="94" spans="1:9">
@@ -4473,19 +4467,19 @@
         <x:v>104783</x:v>
       </x:c>
       <x:c r="D100" s="0" t="n">
-        <x:v>5346</x:v>
+        <x:v>92200</x:v>
       </x:c>
       <x:c r="E100" s="0" t="n">
-        <x:v>13.32</x:v>
+        <x:v>163.26</x:v>
       </x:c>
       <x:c r="F100" s="0" t="n">
-        <x:v>3138500</x:v>
+        <x:v>3138203</x:v>
       </x:c>
       <x:c r="G100" s="0" t="s">
-        <x:v>401</x:v>
+        <x:v>397</x:v>
       </x:c>
       <x:c r="H100" s="0" t="s">
-        <x:v>402</x:v>
+        <x:v>398</x:v>
       </x:c>
       <x:c r="I100" s="0" t="n">
         <x:v>3</x:v>
@@ -4493,28 +4487,28 @@
     </x:row>
     <x:row r="101" spans="1:9">
       <x:c r="A101" s="0" t="s">
-        <x:v>403</x:v>
+        <x:v>401</x:v>
       </x:c>
       <x:c r="B101" s="0" t="s">
-        <x:v>404</x:v>
+        <x:v>402</x:v>
       </x:c>
       <x:c r="C101" s="0" t="n">
         <x:v>5031</x:v>
       </x:c>
       <x:c r="D101" s="0" t="n">
-        <x:v>5422</x:v>
+        <x:v>5346</x:v>
       </x:c>
       <x:c r="E101" s="0" t="n">
-        <x:v>10.84</x:v>
+        <x:v>13.32</x:v>
       </x:c>
       <x:c r="F101" s="0" t="n">
-        <x:v>3138708</x:v>
+        <x:v>3138500</x:v>
       </x:c>
       <x:c r="G101" s="0" t="s">
-        <x:v>405</x:v>
+        <x:v>403</x:v>
       </x:c>
       <x:c r="H101" s="0" t="s">
-        <x:v>406</x:v>
+        <x:v>404</x:v>
       </x:c>
       <x:c r="I101" s="0" t="n">
         <x:v>1</x:v>
